--- a/NetAgent/src/main/resources/Downloads/AgentActivity.xlsx
+++ b/NetAgent/src/main/resources/Downloads/AgentActivity.xlsx
@@ -479,7 +479,7 @@
       </c>
       <c s="4" t="inlineStr" r="D7">
         <is>
-          <t xml:space="preserve">05/21/2023</t>
+          <t xml:space="preserve">08/15/2023</t>
         </is>
       </c>
       <c s="3" t="inlineStr" r="H7">
@@ -489,7 +489,7 @@
       </c>
       <c s="4" t="inlineStr" r="I7">
         <is>
-          <t xml:space="preserve">05/31/2023</t>
+          <t xml:space="preserve">08/25/2023</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33261493</t>
+            <t xml:space="preserve">33417094</t>
           </r>
           <r>
             <rPr>
@@ -602,7 +602,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/24/2023</t>
+            <t xml:space="preserve">08/16/2023</t>
           </r>
         </is>
       </c>
@@ -611,7 +611,7 @@
       <c s="12" t="str" r="E11"/>
       <c s="13" t="inlineStr" r="F11">
         <is>
-          <t xml:space="preserve">TEST PICKUP</t>
+          <t xml:space="preserve">KAISER PERMANENTE NW REGIONAL LABORATORY</t>
         </is>
       </c>
       <c s="11" t="str" r="G11"/>
@@ -621,7 +621,7 @@
       <c s="12" t="str" r="K11"/>
       <c s="13" t="inlineStr" r="M11">
         <is>
-          <t xml:space="preserve">SAN FRANCISCO (SFO)</t>
+          <t xml:space="preserve">LAGUARDIA (LGA)</t>
         </is>
       </c>
       <c s="12" t="str" r="N11"/>
@@ -631,13 +631,13 @@
       <c s="15" t="str" r="E12"/>
       <c s="16" t="inlineStr" r="F12">
         <is>
-          <t xml:space="preserve">123 MAIN ST</t>
+          <t xml:space="preserve">13705 NE AIRPORT WAY</t>
         </is>
       </c>
       <c s="15" t="str" r="K12"/>
       <c s="16" t="inlineStr" r="M12">
         <is>
-          <t xml:space="preserve">Highway 101</t>
+          <t xml:space="preserve">LAGUARDIA AIRPORT</t>
         </is>
       </c>
       <c s="15" t="str" r="N12"/>
@@ -659,13 +659,13 @@
       <c s="15" t="str" r="E14"/>
       <c s="16" t="inlineStr" r="F14">
         <is>
-          <t xml:space="preserve">CHARLOTTE, NC 28208</t>
+          <t xml:space="preserve">MANHATTAN, NY 10036</t>
         </is>
       </c>
       <c s="15" t="str" r="K14"/>
       <c s="16" t="inlineStr" r="M14">
         <is>
-          <t xml:space="preserve">SAN FRANCISCO, CA 94128</t>
+          <t xml:space="preserve">FLUSHING, NY 11371</t>
         </is>
       </c>
       <c s="15" t="str" r="N14"/>
@@ -731,7 +731,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">1.00</t>
+            <t xml:space="preserve">10.00</t>
           </r>
         </is>
       </c>
@@ -768,7 +768,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/24/2023 14:05</t>
+            <t xml:space="preserve">8/16/2023 09:24</t>
           </r>
         </is>
       </c>
@@ -797,7 +797,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/24/2023 11:05</t>
+            <t xml:space="preserve">8/16/2023 09:26</t>
           </r>
         </is>
       </c>
@@ -828,7 +828,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10079543</t>
+            <t xml:space="preserve">10235107</t>
           </r>
         </is>
       </c>
@@ -865,7 +865,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33262878</t>
+            <t xml:space="preserve">33417096</t>
           </r>
           <r>
             <rPr>
@@ -889,7 +889,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/25/2023</t>
+            <t xml:space="preserve">08/16/2023</t>
           </r>
         </is>
       </c>
@@ -1045,6 +1045,18 @@
             </rPr>
             <t xml:space="preserve">PU TM : </t>
           </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">8/16/2023 09:46</t>
+          </r>
         </is>
       </c>
       <c s="15" t="str" r="K24"/>
@@ -1062,6 +1074,18 @@
             </rPr>
             <t xml:space="preserve">DEL TM : </t>
           </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">8/16/2023 09:48</t>
+          </r>
         </is>
       </c>
       <c s="15" t="str" r="N24"/>
@@ -1091,7 +1115,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10080928</t>
+            <t xml:space="preserve">10235109</t>
           </r>
         </is>
       </c>
@@ -1128,7 +1152,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33262943</t>
+            <t xml:space="preserve">33417103</t>
           </r>
           <r>
             <rPr>
@@ -1152,7 +1176,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/25/2023</t>
+            <t xml:space="preserve">08/16/2023</t>
           </r>
         </is>
       </c>
@@ -1161,7 +1185,7 @@
       <c s="12" t="str" r="E27"/>
       <c s="13" t="inlineStr" r="F27">
         <is>
-          <t xml:space="preserve">KAISER PERMANENTE NW REGIONAL LABORATORY</t>
+          <t xml:space="preserve">ALLEGHENY PERFORMANCE PLASTICS</t>
         </is>
       </c>
       <c s="11" t="str" r="G27"/>
@@ -1171,7 +1195,7 @@
       <c s="12" t="str" r="K27"/>
       <c s="13" t="inlineStr" r="M27">
         <is>
-          <t xml:space="preserve">LAGUARDIA (LGA)</t>
+          <t xml:space="preserve">PITTSBURGH (PIT)</t>
         </is>
       </c>
       <c s="12" t="str" r="N27"/>
@@ -1181,13 +1205,13 @@
       <c s="15" t="str" r="E28"/>
       <c s="16" t="inlineStr" r="F28">
         <is>
-          <t xml:space="preserve">13705 NE AIRPORT WAY</t>
+          <t xml:space="preserve">3 AVE A</t>
         </is>
       </c>
       <c s="15" t="str" r="K28"/>
       <c s="16" t="inlineStr" r="M28">
         <is>
-          <t xml:space="preserve">LAGUARDIA AIRPORT</t>
+          <t xml:space="preserve">NULL</t>
         </is>
       </c>
       <c s="15" t="str" r="N28"/>
@@ -1209,13 +1233,13 @@
       <c s="15" t="str" r="E30"/>
       <c s="16" t="inlineStr" r="F30">
         <is>
-          <t xml:space="preserve">MANHATTAN, NY 10036</t>
+          <t xml:space="preserve">LEETSDALE, PA 15056</t>
         </is>
       </c>
       <c s="15" t="str" r="K30"/>
       <c s="16" t="inlineStr" r="M30">
         <is>
-          <t xml:space="preserve">FLUSHING, NY 11371</t>
+          <t xml:space="preserve">PITTSBURGH, PA 15231</t>
         </is>
       </c>
       <c s="15" t="str" r="N30"/>
@@ -1308,6 +1332,18 @@
             </rPr>
             <t xml:space="preserve">PU TM : </t>
           </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">8/16/2023 10:26</t>
+          </r>
         </is>
       </c>
       <c s="15" t="str" r="K32"/>
@@ -1325,6 +1361,18 @@
             </rPr>
             <t xml:space="preserve">DEL TM : </t>
           </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">8/16/2023 10:29</t>
+          </r>
         </is>
       </c>
       <c s="15" t="str" r="N32"/>
@@ -1354,7 +1402,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10080993</t>
+            <t xml:space="preserve">10235116</t>
           </r>
         </is>
       </c>
@@ -1391,7 +1439,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33262873</t>
+            <t xml:space="preserve">33417104</t>
           </r>
           <r>
             <rPr>
@@ -1415,7 +1463,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/25/2023</t>
+            <t xml:space="preserve">08/16/2023</t>
           </r>
         </is>
       </c>
@@ -1571,6 +1619,18 @@
             </rPr>
             <t xml:space="preserve">PU TM : </t>
           </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">8/16/2023 10:46</t>
+          </r>
         </is>
       </c>
       <c s="15" t="str" r="K40"/>
@@ -1588,6 +1648,18 @@
             </rPr>
             <t xml:space="preserve">DEL TM : </t>
           </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">8/16/2023 10:48</t>
+          </r>
         </is>
       </c>
       <c s="15" t="str" r="N40"/>
@@ -1617,7 +1689,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10080923</t>
+            <t xml:space="preserve">10235117</t>
           </r>
         </is>
       </c>
@@ -1654,7 +1726,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33262933</t>
+            <t xml:space="preserve">33426340</t>
           </r>
           <r>
             <rPr>
@@ -1678,7 +1750,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/25/2023</t>
+            <t xml:space="preserve">08/21/2023</t>
           </r>
         </is>
       </c>
@@ -1834,6 +1906,18 @@
             </rPr>
             <t xml:space="preserve">PU TM : </t>
           </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">8/22/2023 00:02</t>
+          </r>
         </is>
       </c>
       <c s="15" t="str" r="K48"/>
@@ -1851,6 +1935,18 @@
             </rPr>
             <t xml:space="preserve">DEL TM : </t>
           </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">8/22/2023 00:05</t>
+          </r>
         </is>
       </c>
       <c s="15" t="str" r="N48"/>
@@ -1880,7 +1976,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10080983</t>
+            <t xml:space="preserve">10244341</t>
           </r>
         </is>
       </c>
@@ -1917,7 +2013,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33263270</t>
+            <t xml:space="preserve">33426431</t>
           </r>
           <r>
             <rPr>
@@ -1941,7 +2037,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/25/2023</t>
+            <t xml:space="preserve">08/22/2023</t>
           </r>
         </is>
       </c>
@@ -1950,7 +2046,7 @@
       <c s="12" t="str" r="E51"/>
       <c s="13" t="inlineStr" r="F51">
         <is>
-          <t xml:space="preserve">TEST PICKUP SFO</t>
+          <t xml:space="preserve">KAISER PERMANENTE NW REGIONAL LABORATORY</t>
         </is>
       </c>
       <c s="11" t="str" r="G51"/>
@@ -1960,7 +2056,7 @@
       <c s="12" t="str" r="K51"/>
       <c s="13" t="inlineStr" r="M51">
         <is>
-          <t xml:space="preserve">SAN FRANCISCO (SFO)</t>
+          <t xml:space="preserve">LAGUARDIA (LGA)</t>
         </is>
       </c>
       <c s="12" t="str" r="N51"/>
@@ -1970,13 +2066,13 @@
       <c s="15" t="str" r="E52"/>
       <c s="16" t="inlineStr" r="F52">
         <is>
-          <t xml:space="preserve">123 MAIN ST</t>
+          <t xml:space="preserve">13705 NE AIRPORT WAY</t>
         </is>
       </c>
       <c s="15" t="str" r="K52"/>
       <c s="16" t="inlineStr" r="M52">
         <is>
-          <t xml:space="preserve">Highway 101</t>
+          <t xml:space="preserve">LAGUARDIA AIRPORT</t>
         </is>
       </c>
       <c s="15" t="str" r="N52"/>
@@ -1998,13 +2094,13 @@
       <c s="15" t="str" r="E54"/>
       <c s="16" t="inlineStr" r="F54">
         <is>
-          <t xml:space="preserve">SAN FRANCISCO, CA 94128</t>
+          <t xml:space="preserve">MANHATTAN, NY 10036</t>
         </is>
       </c>
       <c s="15" t="str" r="K54"/>
       <c s="16" t="inlineStr" r="M54">
         <is>
-          <t xml:space="preserve">SAN FRANCISCO, CA 94128</t>
+          <t xml:space="preserve">FLUSHING, NY 11371</t>
         </is>
       </c>
       <c s="15" t="str" r="N54"/>
@@ -2070,7 +2166,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">1.00</t>
+            <t xml:space="preserve">10.00</t>
           </r>
         </is>
       </c>
@@ -2107,7 +2203,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/25/2023 06:25</t>
+            <t xml:space="preserve">8/22/2023 00:25</t>
           </r>
         </is>
       </c>
@@ -2136,7 +2232,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/25/2023 06:26</t>
+            <t xml:space="preserve">8/22/2023 00:28</t>
           </r>
         </is>
       </c>
@@ -2167,7 +2263,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10081320</t>
+            <t xml:space="preserve">10244432</t>
           </r>
         </is>
       </c>
@@ -2204,7 +2300,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33268947</t>
+            <t xml:space="preserve">33426703</t>
           </r>
           <r>
             <rPr>
@@ -2228,7 +2324,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/29/2023</t>
+            <t xml:space="preserve">08/22/2023</t>
           </r>
         </is>
       </c>
@@ -2394,7 +2490,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 01:58</t>
+            <t xml:space="preserve">8/22/2023 04:48</t>
           </r>
         </is>
       </c>
@@ -2423,7 +2519,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 02:00</t>
+            <t xml:space="preserve">8/22/2023 04:51</t>
           </r>
         </is>
       </c>
@@ -2454,7 +2550,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10086997</t>
+            <t xml:space="preserve">10244704</t>
           </r>
         </is>
       </c>
@@ -2491,7 +2587,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33268961</t>
+            <t xml:space="preserve">33426816</t>
           </r>
           <r>
             <rPr>
@@ -2515,7 +2611,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/29/2023</t>
+            <t xml:space="preserve">08/22/2023</t>
           </r>
         </is>
       </c>
@@ -2681,7 +2777,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 02:18</t>
+            <t xml:space="preserve">8/22/2023 05:22</t>
           </r>
         </is>
       </c>
@@ -2710,7 +2806,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 02:20</t>
+            <t xml:space="preserve">8/22/2023 05:24</t>
           </r>
         </is>
       </c>
@@ -2741,7 +2837,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10087011</t>
+            <t xml:space="preserve">10244817</t>
           </r>
         </is>
       </c>
@@ -2778,7 +2874,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33269023</t>
+            <t xml:space="preserve">33426855</t>
           </r>
           <r>
             <rPr>
@@ -2802,7 +2898,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/29/2023</t>
+            <t xml:space="preserve">08/22/2023</t>
           </r>
         </is>
       </c>
@@ -2811,7 +2907,7 @@
       <c s="12" t="str" r="E75"/>
       <c s="13" t="inlineStr" r="F75">
         <is>
-          <t xml:space="preserve">KAISER PERMANENTE NW REGIONAL LABORATORY</t>
+          <t xml:space="preserve">ALLEGHENY PERFORMANCE PLASTICS</t>
         </is>
       </c>
       <c s="11" t="str" r="G75"/>
@@ -2821,7 +2917,7 @@
       <c s="12" t="str" r="K75"/>
       <c s="13" t="inlineStr" r="M75">
         <is>
-          <t xml:space="preserve">LAGUARDIA (LGA)</t>
+          <t xml:space="preserve">PITTSBURGH (PIT)</t>
         </is>
       </c>
       <c s="12" t="str" r="N75"/>
@@ -2831,13 +2927,13 @@
       <c s="15" t="str" r="E76"/>
       <c s="16" t="inlineStr" r="F76">
         <is>
-          <t xml:space="preserve">13705 NE AIRPORT WAY</t>
+          <t xml:space="preserve">3 AVE A</t>
         </is>
       </c>
       <c s="15" t="str" r="K76"/>
       <c s="16" t="inlineStr" r="M76">
         <is>
-          <t xml:space="preserve">LAGUARDIA AIRPORT</t>
+          <t xml:space="preserve">NULL</t>
         </is>
       </c>
       <c s="15" t="str" r="N76"/>
@@ -2859,13 +2955,13 @@
       <c s="15" t="str" r="E78"/>
       <c s="16" t="inlineStr" r="F78">
         <is>
-          <t xml:space="preserve">MANHATTAN, NY 10036</t>
+          <t xml:space="preserve">LEETSDALE, PA 15056</t>
         </is>
       </c>
       <c s="15" t="str" r="K78"/>
       <c s="16" t="inlineStr" r="M78">
         <is>
-          <t xml:space="preserve">FLUSHING, NY 11371</t>
+          <t xml:space="preserve">PITTSBURGH, PA 15231</t>
         </is>
       </c>
       <c s="15" t="str" r="N78"/>
@@ -2958,6 +3054,18 @@
             </rPr>
             <t xml:space="preserve">PU TM : </t>
           </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">8/22/2023 06:01</t>
+          </r>
         </is>
       </c>
       <c s="15" t="str" r="K80"/>
@@ -2975,6 +3083,18 @@
             </rPr>
             <t xml:space="preserve">DEL TM : </t>
           </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">8/22/2023 06:04</t>
+          </r>
         </is>
       </c>
       <c s="15" t="str" r="N80"/>
@@ -3004,7 +3124,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10087073</t>
+            <t xml:space="preserve">10244856</t>
           </r>
         </is>
       </c>
@@ -3041,7 +3161,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33269052</t>
+            <t xml:space="preserve">33426891</t>
           </r>
           <r>
             <rPr>
@@ -3065,7 +3185,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/29/2023</t>
+            <t xml:space="preserve">08/22/2023</t>
           </r>
         </is>
       </c>
@@ -3231,7 +3351,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 03:38</t>
+            <t xml:space="preserve">8/22/2023 06:32</t>
           </r>
         </is>
       </c>
@@ -3260,7 +3380,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 03:39</t>
+            <t xml:space="preserve">8/22/2023 06:35</t>
           </r>
         </is>
       </c>
@@ -3291,7 +3411,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10087102</t>
+            <t xml:space="preserve">10244892</t>
           </r>
         </is>
       </c>
@@ -3328,7 +3448,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33269062</t>
+            <t xml:space="preserve">33429382</t>
           </r>
           <r>
             <rPr>
@@ -3352,7 +3472,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/29/2023</t>
+            <t xml:space="preserve">08/23/2023</t>
           </r>
         </is>
       </c>
@@ -3518,7 +3638,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 03:54</t>
+            <t xml:space="preserve">8/23/2023 06:27</t>
           </r>
         </is>
       </c>
@@ -3547,7 +3667,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 03:55</t>
+            <t xml:space="preserve">8/23/2023 06:30</t>
           </r>
         </is>
       </c>
@@ -3578,7 +3698,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10087112</t>
+            <t xml:space="preserve">10247383</t>
           </r>
         </is>
       </c>
@@ -3615,7 +3735,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33269090</t>
+            <t xml:space="preserve">33429406</t>
           </r>
           <r>
             <rPr>
@@ -3639,7 +3759,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/29/2023</t>
+            <t xml:space="preserve">08/23/2023</t>
           </r>
         </is>
       </c>
@@ -3805,7 +3925,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 04:13</t>
+            <t xml:space="preserve">8/23/2023 06:48</t>
           </r>
         </is>
       </c>
@@ -3834,7 +3954,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 04:14</t>
+            <t xml:space="preserve">8/23/2023 06:51</t>
           </r>
         </is>
       </c>
@@ -3865,7 +3985,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10087140</t>
+            <t xml:space="preserve">10247407</t>
           </r>
         </is>
       </c>
@@ -3902,7 +4022,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33269120</t>
+            <t xml:space="preserve">33429474</t>
           </r>
           <r>
             <rPr>
@@ -3926,7 +4046,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/29/2023</t>
+            <t xml:space="preserve">08/23/2023</t>
           </r>
         </is>
       </c>
@@ -3935,7 +4055,7 @@
       <c s="12" t="str" r="E107"/>
       <c s="13" t="inlineStr" r="F107">
         <is>
-          <t xml:space="preserve">KAISER PERMANENTE NW REGIONAL LABORATORY</t>
+          <t xml:space="preserve">ALLEGHENY PERFORMANCE PLASTICS</t>
         </is>
       </c>
       <c s="11" t="str" r="G107"/>
@@ -3945,7 +4065,7 @@
       <c s="12" t="str" r="K107"/>
       <c s="13" t="inlineStr" r="M107">
         <is>
-          <t xml:space="preserve">LAGUARDIA (LGA)</t>
+          <t xml:space="preserve">PITTSBURGH (PIT)</t>
         </is>
       </c>
       <c s="12" t="str" r="N107"/>
@@ -3955,13 +4075,13 @@
       <c s="15" t="str" r="E108"/>
       <c s="16" t="inlineStr" r="F108">
         <is>
-          <t xml:space="preserve">13705 NE AIRPORT WAY</t>
+          <t xml:space="preserve">3 AVE A</t>
         </is>
       </c>
       <c s="15" t="str" r="K108"/>
       <c s="16" t="inlineStr" r="M108">
         <is>
-          <t xml:space="preserve">LAGUARDIA AIRPORT</t>
+          <t xml:space="preserve">NULL</t>
         </is>
       </c>
       <c s="15" t="str" r="N108"/>
@@ -3983,13 +4103,13 @@
       <c s="15" t="str" r="E110"/>
       <c s="16" t="inlineStr" r="F110">
         <is>
-          <t xml:space="preserve">MANHATTAN, NY 10036</t>
+          <t xml:space="preserve">LEETSDALE, PA 15056</t>
         </is>
       </c>
       <c s="15" t="str" r="K110"/>
       <c s="16" t="inlineStr" r="M110">
         <is>
-          <t xml:space="preserve">FLUSHING, NY 11371</t>
+          <t xml:space="preserve">PITTSBURGH, PA 15231</t>
         </is>
       </c>
       <c s="15" t="str" r="N110"/>
@@ -4092,7 +4212,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 04:40</t>
+            <t xml:space="preserve">8/23/2023 07:31</t>
           </r>
         </is>
       </c>
@@ -4121,7 +4241,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 04:42</t>
+            <t xml:space="preserve">8/23/2023 07:34</t>
           </r>
         </is>
       </c>
@@ -4152,7 +4272,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10087170</t>
+            <t xml:space="preserve">10247475</t>
           </r>
         </is>
       </c>
@@ -4189,7 +4309,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33269136</t>
+            <t xml:space="preserve">33429531</t>
           </r>
           <r>
             <rPr>
@@ -4213,7 +4333,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/29/2023</t>
+            <t xml:space="preserve">08/23/2023</t>
           </r>
         </is>
       </c>
@@ -4379,7 +4499,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 05:06</t>
+            <t xml:space="preserve">8/23/2023 08:00</t>
           </r>
         </is>
       </c>
@@ -4408,7 +4528,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 05:07</t>
+            <t xml:space="preserve">8/23/2023 08:03</t>
           </r>
         </is>
       </c>
@@ -4439,7 +4559,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10087186</t>
+            <t xml:space="preserve">10247532</t>
           </r>
         </is>
       </c>
@@ -4476,7 +4596,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33269373</t>
+            <t xml:space="preserve">33417094</t>
           </r>
           <r>
             <rPr>
@@ -4500,7 +4620,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/29/2023</t>
+            <t xml:space="preserve">08/16/2023</t>
           </r>
         </is>
       </c>
@@ -4509,7 +4629,7 @@
       <c s="12" t="str" r="E123"/>
       <c s="13" t="inlineStr" r="F123">
         <is>
-          <t xml:space="preserve">KAISER PERMANENTE NW REGIONAL LABORATORY</t>
+          <t xml:space="preserve">MEMPHIS (MEM)</t>
         </is>
       </c>
       <c s="11" t="str" r="G123"/>
@@ -4519,7 +4639,7 @@
       <c s="12" t="str" r="K123"/>
       <c s="13" t="inlineStr" r="M123">
         <is>
-          <t xml:space="preserve">LAGUARDIA (LGA)</t>
+          <t xml:space="preserve">OXFORD LAB</t>
         </is>
       </c>
       <c s="12" t="str" r="N123"/>
@@ -4529,13 +4649,13 @@
       <c s="15" t="str" r="E124"/>
       <c s="16" t="inlineStr" r="F124">
         <is>
-          <t xml:space="preserve">13705 NE AIRPORT WAY</t>
+          <t xml:space="preserve">2491 Winchester Rd # 113</t>
         </is>
       </c>
       <c s="15" t="str" r="K124"/>
       <c s="16" t="inlineStr" r="M124">
         <is>
-          <t xml:space="preserve">LAGUARDIA AIRPORT</t>
+          <t xml:space="preserve">5846 DISTRIBUTION DRIVE</t>
         </is>
       </c>
       <c s="15" t="str" r="N124"/>
@@ -4543,7 +4663,7 @@
     <row r="125" ht="11.85" customHeight="0">
       <c s="16" t="inlineStr" r="B125">
         <is>
-          <t xml:space="preserve">PU</t>
+          <t xml:space="preserve">DL</t>
         </is>
       </c>
       <c s="15" t="str" r="E125"/>
@@ -4557,13 +4677,13 @@
       <c s="15" t="str" r="E126"/>
       <c s="16" t="inlineStr" r="F126">
         <is>
-          <t xml:space="preserve">MANHATTAN, NY 10036</t>
+          <t xml:space="preserve">MEMPHIS, TN 38116</t>
         </is>
       </c>
       <c s="15" t="str" r="K126"/>
       <c s="16" t="inlineStr" r="M126">
         <is>
-          <t xml:space="preserve">FLUSHING, NY 11371</t>
+          <t xml:space="preserve">MEMPHIS, TN 38141</t>
         </is>
       </c>
       <c s="15" t="str" r="N126"/>
@@ -4666,7 +4786,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 08:18</t>
+            <t xml:space="preserve">8/16/2023 08:34</t>
           </r>
         </is>
       </c>
@@ -4695,7 +4815,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 08:20</t>
+            <t xml:space="preserve">8/16/2023 08:35</t>
           </r>
         </is>
       </c>
@@ -4726,7 +4846,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10087423</t>
+            <t xml:space="preserve">10235107</t>
           </r>
         </is>
       </c>
@@ -4763,7 +4883,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33269622</t>
+            <t xml:space="preserve">33417096</t>
           </r>
           <r>
             <rPr>
@@ -4787,7 +4907,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/29/2023</t>
+            <t xml:space="preserve">08/16/2023</t>
           </r>
         </is>
       </c>
@@ -4796,7 +4916,7 @@
       <c s="12" t="str" r="E131"/>
       <c s="13" t="inlineStr" r="F131">
         <is>
-          <t xml:space="preserve">KAISER PERMANENTE NW REGIONAL LABORATORY</t>
+          <t xml:space="preserve">MEMPHIS (MEM)</t>
         </is>
       </c>
       <c s="11" t="str" r="G131"/>
@@ -4806,7 +4926,7 @@
       <c s="12" t="str" r="K131"/>
       <c s="13" t="inlineStr" r="M131">
         <is>
-          <t xml:space="preserve">LAGUARDIA (LGA)</t>
+          <t xml:space="preserve">OXFORD LAB</t>
         </is>
       </c>
       <c s="12" t="str" r="N131"/>
@@ -4816,13 +4936,13 @@
       <c s="15" t="str" r="E132"/>
       <c s="16" t="inlineStr" r="F132">
         <is>
-          <t xml:space="preserve">13705 NE AIRPORT WAY</t>
+          <t xml:space="preserve">2491 Winchester Rd # 113</t>
         </is>
       </c>
       <c s="15" t="str" r="K132"/>
       <c s="16" t="inlineStr" r="M132">
         <is>
-          <t xml:space="preserve">LAGUARDIA AIRPORT</t>
+          <t xml:space="preserve">5846 DISTRIBUTION DRIVE</t>
         </is>
       </c>
       <c s="15" t="str" r="N132"/>
@@ -4830,7 +4950,7 @@
     <row r="133" ht="11.85" customHeight="0">
       <c s="16" t="inlineStr" r="B133">
         <is>
-          <t xml:space="preserve">PU</t>
+          <t xml:space="preserve">DL</t>
         </is>
       </c>
       <c s="15" t="str" r="E133"/>
@@ -4844,13 +4964,13 @@
       <c s="15" t="str" r="E134"/>
       <c s="16" t="inlineStr" r="F134">
         <is>
-          <t xml:space="preserve">MANHATTAN, NY 10036</t>
+          <t xml:space="preserve">MEMPHIS, TN 38116</t>
         </is>
       </c>
       <c s="15" t="str" r="K134"/>
       <c s="16" t="inlineStr" r="M134">
         <is>
-          <t xml:space="preserve">FLUSHING, NY 11371</t>
+          <t xml:space="preserve">MEMPHIS, TN 38141</t>
         </is>
       </c>
       <c s="15" t="str" r="N134"/>
@@ -4953,7 +5073,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 08:35</t>
+            <t xml:space="preserve">8/16/2023 08:56</t>
           </r>
         </is>
       </c>
@@ -4982,7 +5102,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 08:36</t>
+            <t xml:space="preserve">8/16/2023 08:57</t>
           </r>
         </is>
       </c>
@@ -5013,7 +5133,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10087672</t>
+            <t xml:space="preserve">10235109</t>
           </r>
         </is>
       </c>
@@ -5050,7 +5170,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33269672</t>
+            <t xml:space="preserve">33426431</t>
           </r>
           <r>
             <rPr>
@@ -5074,7 +5194,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/29/2023</t>
+            <t xml:space="preserve">08/22/2023</t>
           </r>
         </is>
       </c>
@@ -5083,7 +5203,7 @@
       <c s="12" t="str" r="E139"/>
       <c s="13" t="inlineStr" r="F139">
         <is>
-          <t xml:space="preserve">KAISER PERMANENTE NW REGIONAL LABORATORY</t>
+          <t xml:space="preserve">MEMPHIS (MEM)</t>
         </is>
       </c>
       <c s="11" t="str" r="G139"/>
@@ -5093,7 +5213,7 @@
       <c s="12" t="str" r="K139"/>
       <c s="13" t="inlineStr" r="M139">
         <is>
-          <t xml:space="preserve">LAGUARDIA (LGA)</t>
+          <t xml:space="preserve">OXFORD LAB</t>
         </is>
       </c>
       <c s="12" t="str" r="N139"/>
@@ -5103,13 +5223,13 @@
       <c s="15" t="str" r="E140"/>
       <c s="16" t="inlineStr" r="F140">
         <is>
-          <t xml:space="preserve">13705 NE AIRPORT WAY</t>
+          <t xml:space="preserve">2491 Winchester Rd # 113</t>
         </is>
       </c>
       <c s="15" t="str" r="K140"/>
       <c s="16" t="inlineStr" r="M140">
         <is>
-          <t xml:space="preserve">LAGUARDIA AIRPORT</t>
+          <t xml:space="preserve">5846 DISTRIBUTION DRIVE</t>
         </is>
       </c>
       <c s="15" t="str" r="N140"/>
@@ -5117,7 +5237,7 @@
     <row r="141" ht="11.85" customHeight="0">
       <c s="16" t="inlineStr" r="B141">
         <is>
-          <t xml:space="preserve">PU</t>
+          <t xml:space="preserve">DL</t>
         </is>
       </c>
       <c s="15" t="str" r="E141"/>
@@ -5131,13 +5251,13 @@
       <c s="15" t="str" r="E142"/>
       <c s="16" t="inlineStr" r="F142">
         <is>
-          <t xml:space="preserve">MANHATTAN, NY 10036</t>
+          <t xml:space="preserve">MEMPHIS, TN 38116</t>
         </is>
       </c>
       <c s="15" t="str" r="K142"/>
       <c s="16" t="inlineStr" r="M142">
         <is>
-          <t xml:space="preserve">FLUSHING, NY 11371</t>
+          <t xml:space="preserve">MEMPHIS, TN 38141</t>
         </is>
       </c>
       <c s="15" t="str" r="N142"/>
@@ -5240,7 +5360,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 09:10</t>
+            <t xml:space="preserve">8/21/2023 23:34</t>
           </r>
         </is>
       </c>
@@ -5269,7 +5389,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 09:12</t>
+            <t xml:space="preserve">8/21/2023 23:35</t>
           </r>
         </is>
       </c>
@@ -5300,7 +5420,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10087722</t>
+            <t xml:space="preserve">10244432</t>
           </r>
         </is>
       </c>
@@ -5337,7 +5457,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33269779</t>
+            <t xml:space="preserve">33426703</t>
           </r>
           <r>
             <rPr>
@@ -5361,7 +5481,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/29/2023</t>
+            <t xml:space="preserve">08/22/2023</t>
           </r>
         </is>
       </c>
@@ -5370,7 +5490,7 @@
       <c s="12" t="str" r="E147"/>
       <c s="13" t="inlineStr" r="F147">
         <is>
-          <t xml:space="preserve">KAISER PERMANENTE NW REGIONAL LABORATORY</t>
+          <t xml:space="preserve">MEMPHIS (MEM)</t>
         </is>
       </c>
       <c s="11" t="str" r="G147"/>
@@ -5380,7 +5500,7 @@
       <c s="12" t="str" r="K147"/>
       <c s="13" t="inlineStr" r="M147">
         <is>
-          <t xml:space="preserve">LAGUARDIA (LGA)</t>
+          <t xml:space="preserve">OXFORD LAB</t>
         </is>
       </c>
       <c s="12" t="str" r="N147"/>
@@ -5390,13 +5510,13 @@
       <c s="15" t="str" r="E148"/>
       <c s="16" t="inlineStr" r="F148">
         <is>
-          <t xml:space="preserve">13705 NE AIRPORT WAY</t>
+          <t xml:space="preserve">2491 Winchester Rd # 113</t>
         </is>
       </c>
       <c s="15" t="str" r="K148"/>
       <c s="16" t="inlineStr" r="M148">
         <is>
-          <t xml:space="preserve">LAGUARDIA AIRPORT</t>
+          <t xml:space="preserve">5846 DISTRIBUTION DRIVE</t>
         </is>
       </c>
       <c s="15" t="str" r="N148"/>
@@ -5404,7 +5524,7 @@
     <row r="149" ht="11.85" customHeight="0">
       <c s="16" t="inlineStr" r="B149">
         <is>
-          <t xml:space="preserve">PU</t>
+          <t xml:space="preserve">DL</t>
         </is>
       </c>
       <c s="15" t="str" r="E149"/>
@@ -5418,13 +5538,13 @@
       <c s="15" t="str" r="E150"/>
       <c s="16" t="inlineStr" r="F150">
         <is>
-          <t xml:space="preserve">MANHATTAN, NY 10036</t>
+          <t xml:space="preserve">MEMPHIS, TN 38116</t>
         </is>
       </c>
       <c s="15" t="str" r="K150"/>
       <c s="16" t="inlineStr" r="M150">
         <is>
-          <t xml:space="preserve">FLUSHING, NY 11371</t>
+          <t xml:space="preserve">MEMPHIS, TN 38141</t>
         </is>
       </c>
       <c s="15" t="str" r="N150"/>
@@ -5527,7 +5647,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 10:22</t>
+            <t xml:space="preserve">8/22/2023 03:58</t>
           </r>
         </is>
       </c>
@@ -5556,7 +5676,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 10:24</t>
+            <t xml:space="preserve">8/22/2023 03:59</t>
           </r>
         </is>
       </c>
@@ -5587,7 +5707,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10087829</t>
+            <t xml:space="preserve">10244704</t>
           </r>
         </is>
       </c>
@@ -5624,7 +5744,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33269817</t>
+            <t xml:space="preserve">33426816</t>
           </r>
           <r>
             <rPr>
@@ -5648,7 +5768,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/29/2023</t>
+            <t xml:space="preserve">08/22/2023</t>
           </r>
         </is>
       </c>
@@ -5657,7 +5777,7 @@
       <c s="12" t="str" r="E155"/>
       <c s="13" t="inlineStr" r="F155">
         <is>
-          <t xml:space="preserve">KAISER PERMANENTE NW REGIONAL LABORATORY</t>
+          <t xml:space="preserve">MEMPHIS (MEM)</t>
         </is>
       </c>
       <c s="11" t="str" r="G155"/>
@@ -5667,7 +5787,7 @@
       <c s="12" t="str" r="K155"/>
       <c s="13" t="inlineStr" r="M155">
         <is>
-          <t xml:space="preserve">LAGUARDIA (LGA)</t>
+          <t xml:space="preserve">OXFORD LAB</t>
         </is>
       </c>
       <c s="12" t="str" r="N155"/>
@@ -5677,13 +5797,13 @@
       <c s="15" t="str" r="E156"/>
       <c s="16" t="inlineStr" r="F156">
         <is>
-          <t xml:space="preserve">13705 NE AIRPORT WAY</t>
+          <t xml:space="preserve">2491 Winchester Rd # 113</t>
         </is>
       </c>
       <c s="15" t="str" r="K156"/>
       <c s="16" t="inlineStr" r="M156">
         <is>
-          <t xml:space="preserve">LAGUARDIA AIRPORT</t>
+          <t xml:space="preserve">5846 DISTRIBUTION DRIVE</t>
         </is>
       </c>
       <c s="15" t="str" r="N156"/>
@@ -5691,7 +5811,7 @@
     <row r="157" ht="11.85" customHeight="0">
       <c s="16" t="inlineStr" r="B157">
         <is>
-          <t xml:space="preserve">PU</t>
+          <t xml:space="preserve">DL</t>
         </is>
       </c>
       <c s="15" t="str" r="E157"/>
@@ -5705,13 +5825,13 @@
       <c s="15" t="str" r="E158"/>
       <c s="16" t="inlineStr" r="F158">
         <is>
-          <t xml:space="preserve">MANHATTAN, NY 10036</t>
+          <t xml:space="preserve">MEMPHIS, TN 38116</t>
         </is>
       </c>
       <c s="15" t="str" r="K158"/>
       <c s="16" t="inlineStr" r="M158">
         <is>
-          <t xml:space="preserve">FLUSHING, NY 11371</t>
+          <t xml:space="preserve">MEMPHIS, TN 38141</t>
         </is>
       </c>
       <c s="15" t="str" r="N158"/>
@@ -5814,7 +5934,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 10:39</t>
+            <t xml:space="preserve">8/22/2023 04:31</t>
           </r>
         </is>
       </c>
@@ -5843,7 +5963,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 10:41</t>
+            <t xml:space="preserve">8/22/2023 04:32</t>
           </r>
         </is>
       </c>
@@ -5874,7 +5994,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10087867</t>
+            <t xml:space="preserve">10244817</t>
           </r>
         </is>
       </c>
@@ -5911,7 +6031,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33269914</t>
+            <t xml:space="preserve">33429382</t>
           </r>
           <r>
             <rPr>
@@ -5935,7 +6055,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/29/2023</t>
+            <t xml:space="preserve">08/23/2023</t>
           </r>
         </is>
       </c>
@@ -5944,7 +6064,7 @@
       <c s="12" t="str" r="E163"/>
       <c s="13" t="inlineStr" r="F163">
         <is>
-          <t xml:space="preserve">KAISER PERMANENTE NW REGIONAL LABORATORY</t>
+          <t xml:space="preserve">MEMPHIS (MEM)</t>
         </is>
       </c>
       <c s="11" t="str" r="G163"/>
@@ -5954,7 +6074,7 @@
       <c s="12" t="str" r="K163"/>
       <c s="13" t="inlineStr" r="M163">
         <is>
-          <t xml:space="preserve">LAGUARDIA (LGA)</t>
+          <t xml:space="preserve">OXFORD LAB</t>
         </is>
       </c>
       <c s="12" t="str" r="N163"/>
@@ -5964,13 +6084,13 @@
       <c s="15" t="str" r="E164"/>
       <c s="16" t="inlineStr" r="F164">
         <is>
-          <t xml:space="preserve">13705 NE AIRPORT WAY</t>
+          <t xml:space="preserve">2491 Winchester Rd # 113</t>
         </is>
       </c>
       <c s="15" t="str" r="K164"/>
       <c s="16" t="inlineStr" r="M164">
         <is>
-          <t xml:space="preserve">LAGUARDIA AIRPORT</t>
+          <t xml:space="preserve">5846 DISTRIBUTION DRIVE</t>
         </is>
       </c>
       <c s="15" t="str" r="N164"/>
@@ -5978,7 +6098,7 @@
     <row r="165" ht="11.85" customHeight="0">
       <c s="16" t="inlineStr" r="B165">
         <is>
-          <t xml:space="preserve">PU</t>
+          <t xml:space="preserve">DL</t>
         </is>
       </c>
       <c s="15" t="str" r="E165"/>
@@ -5992,13 +6112,13 @@
       <c s="15" t="str" r="E166"/>
       <c s="16" t="inlineStr" r="F166">
         <is>
-          <t xml:space="preserve">MANHATTAN, NY 10036</t>
+          <t xml:space="preserve">MEMPHIS, TN 38116</t>
         </is>
       </c>
       <c s="15" t="str" r="K166"/>
       <c s="16" t="inlineStr" r="M166">
         <is>
-          <t xml:space="preserve">FLUSHING, NY 11371</t>
+          <t xml:space="preserve">MEMPHIS, TN 38141</t>
         </is>
       </c>
       <c s="15" t="str" r="N166"/>
@@ -6101,7 +6221,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 11:32</t>
+            <t xml:space="preserve">8/23/2023 05:37</t>
           </r>
         </is>
       </c>
@@ -6130,7 +6250,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 11:33</t>
+            <t xml:space="preserve">8/23/2023 05:38</t>
           </r>
         </is>
       </c>
@@ -6161,7 +6281,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10087964</t>
+            <t xml:space="preserve">10247383</t>
           </r>
         </is>
       </c>
@@ -6198,7 +6318,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33269933</t>
+            <t xml:space="preserve">33429531</t>
           </r>
           <r>
             <rPr>
@@ -6222,7 +6342,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/29/2023</t>
+            <t xml:space="preserve">08/23/2023</t>
           </r>
         </is>
       </c>
@@ -6231,7 +6351,7 @@
       <c s="12" t="str" r="E171"/>
       <c s="13" t="inlineStr" r="F171">
         <is>
-          <t xml:space="preserve">KAISER PERMANENTE NW REGIONAL LABORATORY</t>
+          <t xml:space="preserve">MEMPHIS (MEM)</t>
         </is>
       </c>
       <c s="11" t="str" r="G171"/>
@@ -6241,7 +6361,7 @@
       <c s="12" t="str" r="K171"/>
       <c s="13" t="inlineStr" r="M171">
         <is>
-          <t xml:space="preserve">LAGUARDIA (LGA)</t>
+          <t xml:space="preserve">OXFORD LAB</t>
         </is>
       </c>
       <c s="12" t="str" r="N171"/>
@@ -6251,13 +6371,13 @@
       <c s="15" t="str" r="E172"/>
       <c s="16" t="inlineStr" r="F172">
         <is>
-          <t xml:space="preserve">13705 NE AIRPORT WAY</t>
+          <t xml:space="preserve">2491 Winchester Rd # 113</t>
         </is>
       </c>
       <c s="15" t="str" r="K172"/>
       <c s="16" t="inlineStr" r="M172">
         <is>
-          <t xml:space="preserve">LAGUARDIA AIRPORT</t>
+          <t xml:space="preserve">5846 DISTRIBUTION DRIVE</t>
         </is>
       </c>
       <c s="15" t="str" r="N172"/>
@@ -6265,7 +6385,7 @@
     <row r="173" ht="11.85" customHeight="0">
       <c s="16" t="inlineStr" r="B173">
         <is>
-          <t xml:space="preserve">PU</t>
+          <t xml:space="preserve">DL</t>
         </is>
       </c>
       <c s="15" t="str" r="E173"/>
@@ -6279,13 +6399,13 @@
       <c s="15" t="str" r="E174"/>
       <c s="16" t="inlineStr" r="F174">
         <is>
-          <t xml:space="preserve">MANHATTAN, NY 10036</t>
+          <t xml:space="preserve">MEMPHIS, TN 38116</t>
         </is>
       </c>
       <c s="15" t="str" r="K174"/>
       <c s="16" t="inlineStr" r="M174">
         <is>
-          <t xml:space="preserve">FLUSHING, NY 11371</t>
+          <t xml:space="preserve">MEMPHIS, TN 38141</t>
         </is>
       </c>
       <c s="15" t="str" r="N174"/>
@@ -6388,7 +6508,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 11:42</t>
+            <t xml:space="preserve">8/23/2023 07:11</t>
           </r>
         </is>
       </c>
@@ -6417,7 +6537,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 11:43</t>
+            <t xml:space="preserve">8/23/2023 07:12</t>
           </r>
         </is>
       </c>
@@ -6448,7 +6568,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10087983</t>
+            <t xml:space="preserve">10247532</t>
           </r>
         </is>
       </c>
@@ -6485,7 +6605,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33270076</t>
+            <t xml:space="preserve">33415993</t>
           </r>
           <r>
             <rPr>
@@ -6509,7 +6629,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/29/2023</t>
+            <t xml:space="preserve">08/15/2023</t>
           </r>
         </is>
       </c>
@@ -6518,7 +6638,7 @@
       <c s="12" t="str" r="E179"/>
       <c s="13" t="inlineStr" r="F179">
         <is>
-          <t xml:space="preserve">KAISER PERMANENTE NW REGIONAL LABORATORY</t>
+          <t xml:space="preserve">NOTHING BUNDT CAKES</t>
         </is>
       </c>
       <c s="11" t="str" r="G179"/>
@@ -6528,7 +6648,7 @@
       <c s="12" t="str" r="K179"/>
       <c s="13" t="inlineStr" r="M179">
         <is>
-          <t xml:space="preserve">LAGUARDIA (LGA)</t>
+          <t xml:space="preserve">PARKHILL, PHYLLIS</t>
         </is>
       </c>
       <c s="12" t="str" r="N179"/>
@@ -6538,13 +6658,13 @@
       <c s="15" t="str" r="E180"/>
       <c s="16" t="inlineStr" r="F180">
         <is>
-          <t xml:space="preserve">13705 NE AIRPORT WAY</t>
+          <t xml:space="preserve">304 W BAY AREA BLVD.</t>
         </is>
       </c>
       <c s="15" t="str" r="K180"/>
       <c s="16" t="inlineStr" r="M180">
         <is>
-          <t xml:space="preserve">LAGUARDIA AIRPORT</t>
+          <t xml:space="preserve">2100 SPACE PARK DR.</t>
         </is>
       </c>
       <c s="15" t="str" r="N180"/>
@@ -6566,13 +6686,13 @@
       <c s="15" t="str" r="E182"/>
       <c s="16" t="inlineStr" r="F182">
         <is>
-          <t xml:space="preserve">MANHATTAN, NY 10036</t>
+          <t xml:space="preserve">FONDREN, TX 77598</t>
         </is>
       </c>
       <c s="15" t="str" r="K182"/>
       <c s="16" t="inlineStr" r="M182">
         <is>
-          <t xml:space="preserve">FLUSHING, NY 11371</t>
+          <t xml:space="preserve">CLEAR LAKE, TX 77058</t>
         </is>
       </c>
       <c s="15" t="str" r="N182"/>
@@ -6638,7 +6758,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10.00</t>
+            <t xml:space="preserve">24.00</t>
           </r>
         </is>
       </c>
@@ -6665,18 +6785,6 @@
             </rPr>
             <t xml:space="preserve">PU TM : </t>
           </r>
-          <r>
-            <rPr>
-              <b val="0"/>
-              <i val="0"/>
-              <strike val="0"/>
-              <u val="none"/>
-              <sz val="9"/>
-              <color rgb="FF000000"/>
-              <rFont val="Arial"/>
-            </rPr>
-            <t xml:space="preserve">5/29/2023 12:57</t>
-          </r>
         </is>
       </c>
       <c s="15" t="str" r="K184"/>
@@ -6694,18 +6802,6 @@
             </rPr>
             <t xml:space="preserve">DEL TM : </t>
           </r>
-          <r>
-            <rPr>
-              <b val="0"/>
-              <i val="0"/>
-              <strike val="0"/>
-              <u val="none"/>
-              <sz val="9"/>
-              <color rgb="FF000000"/>
-              <rFont val="Arial"/>
-            </rPr>
-            <t xml:space="preserve">5/29/2023 12:59</t>
-          </r>
         </is>
       </c>
       <c s="15" t="str" r="N184"/>
@@ -6735,7 +6831,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10088126</t>
+            <t xml:space="preserve">10234006</t>
           </r>
         </is>
       </c>
@@ -6772,7 +6868,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33270093</t>
+            <t xml:space="preserve">33416400</t>
           </r>
           <r>
             <rPr>
@@ -6796,7 +6892,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/29/2023</t>
+            <t xml:space="preserve">08/15/2023</t>
           </r>
         </is>
       </c>
@@ -6805,7 +6901,7 @@
       <c s="12" t="str" r="E187"/>
       <c s="13" t="inlineStr" r="F187">
         <is>
-          <t xml:space="preserve">KAISER PERMANENTE NW REGIONAL LABORATORY</t>
+          <t xml:space="preserve">NOTHING BUNDT CAKES</t>
         </is>
       </c>
       <c s="11" t="str" r="G187"/>
@@ -6815,7 +6911,7 @@
       <c s="12" t="str" r="K187"/>
       <c s="13" t="inlineStr" r="M187">
         <is>
-          <t xml:space="preserve">LAGUARDIA (LGA)</t>
+          <t xml:space="preserve">PARKHILL, PHYLLIS</t>
         </is>
       </c>
       <c s="12" t="str" r="N187"/>
@@ -6825,13 +6921,13 @@
       <c s="15" t="str" r="E188"/>
       <c s="16" t="inlineStr" r="F188">
         <is>
-          <t xml:space="preserve">13705 NE AIRPORT WAY</t>
+          <t xml:space="preserve">304 W BAY AREA BLVD.</t>
         </is>
       </c>
       <c s="15" t="str" r="K188"/>
       <c s="16" t="inlineStr" r="M188">
         <is>
-          <t xml:space="preserve">LAGUARDIA AIRPORT</t>
+          <t xml:space="preserve">2100 SPACE PARK DR.</t>
         </is>
       </c>
       <c s="15" t="str" r="N188"/>
@@ -6853,13 +6949,13 @@
       <c s="15" t="str" r="E190"/>
       <c s="16" t="inlineStr" r="F190">
         <is>
-          <t xml:space="preserve">MANHATTAN, NY 10036</t>
+          <t xml:space="preserve">FONDREN, TX 77598</t>
         </is>
       </c>
       <c s="15" t="str" r="K190"/>
       <c s="16" t="inlineStr" r="M190">
         <is>
-          <t xml:space="preserve">FLUSHING, NY 11371</t>
+          <t xml:space="preserve">CLEAR LAKE, TX 77058</t>
         </is>
       </c>
       <c s="15" t="str" r="N190"/>
@@ -6925,7 +7021,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10.00</t>
+            <t xml:space="preserve">24.00</t>
           </r>
         </is>
       </c>
@@ -6962,7 +7058,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 13:14</t>
+            <t xml:space="preserve">8/15/2023 23:49</t>
           </r>
         </is>
       </c>
@@ -6991,7 +7087,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 13:16</t>
+            <t xml:space="preserve">8/15/2023 23:52</t>
           </r>
         </is>
       </c>
@@ -7022,7 +7118,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10088143</t>
+            <t xml:space="preserve">10234413</t>
           </r>
         </is>
       </c>
@@ -7059,7 +7155,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33270745</t>
+            <t xml:space="preserve">33416404</t>
           </r>
           <r>
             <rPr>
@@ -7083,7 +7179,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/30/2023</t>
+            <t xml:space="preserve">08/15/2023</t>
           </r>
         </is>
       </c>
@@ -7092,7 +7188,7 @@
       <c s="12" t="str" r="E195"/>
       <c s="13" t="inlineStr" r="F195">
         <is>
-          <t xml:space="preserve">KAISER PERMANENTE NW REGIONAL LABORATORY</t>
+          <t xml:space="preserve">NOTHING BUNDT CAKES</t>
         </is>
       </c>
       <c s="11" t="str" r="G195"/>
@@ -7102,7 +7198,7 @@
       <c s="12" t="str" r="K195"/>
       <c s="13" t="inlineStr" r="M195">
         <is>
-          <t xml:space="preserve">LAGUARDIA (LGA)</t>
+          <t xml:space="preserve">PARKHILL, PHYLLIS</t>
         </is>
       </c>
       <c s="12" t="str" r="N195"/>
@@ -7112,13 +7208,13 @@
       <c s="15" t="str" r="E196"/>
       <c s="16" t="inlineStr" r="F196">
         <is>
-          <t xml:space="preserve">13705 NE AIRPORT WAY</t>
+          <t xml:space="preserve">304 W BAY AREA BLVD.</t>
         </is>
       </c>
       <c s="15" t="str" r="K196"/>
       <c s="16" t="inlineStr" r="M196">
         <is>
-          <t xml:space="preserve">LAGUARDIA AIRPORT</t>
+          <t xml:space="preserve">2100 SPACE PARK DR.</t>
         </is>
       </c>
       <c s="15" t="str" r="N196"/>
@@ -7140,13 +7236,13 @@
       <c s="15" t="str" r="E198"/>
       <c s="16" t="inlineStr" r="F198">
         <is>
-          <t xml:space="preserve">MANHATTAN, NY 10036</t>
+          <t xml:space="preserve">FONDREN, TX 77598</t>
         </is>
       </c>
       <c s="15" t="str" r="K198"/>
       <c s="16" t="inlineStr" r="M198">
         <is>
-          <t xml:space="preserve">FLUSHING, NY 11371</t>
+          <t xml:space="preserve">CLEAR LAKE, TX 77058</t>
         </is>
       </c>
       <c s="15" t="str" r="N198"/>
@@ -7212,7 +7308,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10.00</t>
+            <t xml:space="preserve">24.00</t>
           </r>
         </is>
       </c>
@@ -7239,18 +7335,6 @@
             </rPr>
             <t xml:space="preserve">PU TM : </t>
           </r>
-          <r>
-            <rPr>
-              <b val="0"/>
-              <i val="0"/>
-              <strike val="0"/>
-              <u val="none"/>
-              <sz val="9"/>
-              <color rgb="FF000000"/>
-              <rFont val="Arial"/>
-            </rPr>
-            <t xml:space="preserve">5/30/2023 03:25</t>
-          </r>
         </is>
       </c>
       <c s="15" t="str" r="K200"/>
@@ -7268,18 +7352,6 @@
             </rPr>
             <t xml:space="preserve">DEL TM : </t>
           </r>
-          <r>
-            <rPr>
-              <b val="0"/>
-              <i val="0"/>
-              <strike val="0"/>
-              <u val="none"/>
-              <sz val="9"/>
-              <color rgb="FF000000"/>
-              <rFont val="Arial"/>
-            </rPr>
-            <t xml:space="preserve">5/30/2023 03:27</t>
-          </r>
         </is>
       </c>
       <c s="15" t="str" r="N200"/>
@@ -7309,7 +7381,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10088795</t>
+            <t xml:space="preserve">10234417</t>
           </r>
         </is>
       </c>
@@ -7346,7 +7418,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33270758</t>
+            <t xml:space="preserve">33417093</t>
           </r>
           <r>
             <rPr>
@@ -7370,7 +7442,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/30/2023</t>
+            <t xml:space="preserve">08/16/2023</t>
           </r>
         </is>
       </c>
@@ -7379,7 +7451,7 @@
       <c s="12" t="str" r="E203"/>
       <c s="13" t="inlineStr" r="F203">
         <is>
-          <t xml:space="preserve">KAISER PERMANENTE NW REGIONAL LABORATORY</t>
+          <t xml:space="preserve">NOTHING BUNDT CAKES</t>
         </is>
       </c>
       <c s="11" t="str" r="G203"/>
@@ -7389,7 +7461,7 @@
       <c s="12" t="str" r="K203"/>
       <c s="13" t="inlineStr" r="M203">
         <is>
-          <t xml:space="preserve">LAGUARDIA (LGA)</t>
+          <t xml:space="preserve">PARKHILL, PHYLLIS</t>
         </is>
       </c>
       <c s="12" t="str" r="N203"/>
@@ -7399,13 +7471,13 @@
       <c s="15" t="str" r="E204"/>
       <c s="16" t="inlineStr" r="F204">
         <is>
-          <t xml:space="preserve">13705 NE AIRPORT WAY</t>
+          <t xml:space="preserve">304 W BAY AREA BLVD.</t>
         </is>
       </c>
       <c s="15" t="str" r="K204"/>
       <c s="16" t="inlineStr" r="M204">
         <is>
-          <t xml:space="preserve">LAGUARDIA AIRPORT</t>
+          <t xml:space="preserve">2100 SPACE PARK DR.</t>
         </is>
       </c>
       <c s="15" t="str" r="N204"/>
@@ -7427,13 +7499,13 @@
       <c s="15" t="str" r="E206"/>
       <c s="16" t="inlineStr" r="F206">
         <is>
-          <t xml:space="preserve">MANHATTAN, NY 10036</t>
+          <t xml:space="preserve">FONDREN, TX 77598</t>
         </is>
       </c>
       <c s="15" t="str" r="K206"/>
       <c s="16" t="inlineStr" r="M206">
         <is>
-          <t xml:space="preserve">FLUSHING, NY 11371</t>
+          <t xml:space="preserve">CLEAR LAKE, TX 77058</t>
         </is>
       </c>
       <c s="15" t="str" r="N206"/>
@@ -7499,7 +7571,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10.00</t>
+            <t xml:space="preserve">24.00</t>
           </r>
         </is>
       </c>
@@ -7526,6 +7598,18 @@
             </rPr>
             <t xml:space="preserve">PU TM : </t>
           </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">8/16/2023 08:10</t>
+          </r>
         </is>
       </c>
       <c s="15" t="str" r="K208"/>
@@ -7543,6 +7627,18 @@
             </rPr>
             <t xml:space="preserve">DEL TM : </t>
           </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">8/16/2023 08:13</t>
+          </r>
         </is>
       </c>
       <c s="15" t="str" r="N208"/>
@@ -7572,7 +7668,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10088808</t>
+            <t xml:space="preserve">10235106</t>
           </r>
         </is>
       </c>
@@ -7609,7 +7705,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33270825</t>
+            <t xml:space="preserve">33417101</t>
           </r>
           <r>
             <rPr>
@@ -7633,7 +7729,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/30/2023</t>
+            <t xml:space="preserve">08/16/2023</t>
           </r>
         </is>
       </c>
@@ -7642,7 +7738,7 @@
       <c s="12" t="str" r="E211"/>
       <c s="13" t="inlineStr" r="F211">
         <is>
-          <t xml:space="preserve">KAISER PERMANENTE NW REGIONAL LABORATORY</t>
+          <t xml:space="preserve">PORT PLASTICS</t>
         </is>
       </c>
       <c s="11" t="str" r="G211"/>
@@ -7652,7 +7748,7 @@
       <c s="12" t="str" r="K211"/>
       <c s="13" t="inlineStr" r="M211">
         <is>
-          <t xml:space="preserve">LAGUARDIA (LGA)</t>
+          <t xml:space="preserve">ALPHA MACHINE</t>
         </is>
       </c>
       <c s="12" t="str" r="N211"/>
@@ -7662,13 +7758,13 @@
       <c s="15" t="str" r="E212"/>
       <c s="16" t="inlineStr" r="F212">
         <is>
-          <t xml:space="preserve">13705 NE AIRPORT WAY</t>
+          <t xml:space="preserve">550 E. TRIMBLE ROAD #A</t>
         </is>
       </c>
       <c s="15" t="str" r="K212"/>
       <c s="16" t="inlineStr" r="M212">
         <is>
-          <t xml:space="preserve">LAGUARDIA AIRPORT</t>
+          <t xml:space="preserve">933 CHITTENDEN LANE</t>
         </is>
       </c>
       <c s="15" t="str" r="N212"/>
@@ -7690,13 +7786,13 @@
       <c s="15" t="str" r="E214"/>
       <c s="16" t="inlineStr" r="F214">
         <is>
-          <t xml:space="preserve">MANHATTAN, NY 10036</t>
+          <t xml:space="preserve">SAN JOSE, CA 95131</t>
         </is>
       </c>
       <c s="15" t="str" r="K214"/>
       <c s="16" t="inlineStr" r="M214">
         <is>
-          <t xml:space="preserve">FLUSHING, NY 11371</t>
+          <t xml:space="preserve">CAPITOLA, CA 95010</t>
         </is>
       </c>
       <c s="15" t="str" r="N214"/>
@@ -7762,7 +7858,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10.00</t>
+            <t xml:space="preserve">50.00</t>
           </r>
         </is>
       </c>
@@ -7799,7 +7895,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/30/2023 04:41</t>
+            <t xml:space="preserve">8/16/2023 07:05</t>
           </r>
         </is>
       </c>
@@ -7828,7 +7924,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/30/2023 04:43</t>
+            <t xml:space="preserve">8/16/2023 07:14</t>
           </r>
         </is>
       </c>
@@ -7859,7 +7955,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10088875</t>
+            <t xml:space="preserve">10235114</t>
           </r>
         </is>
       </c>
@@ -7896,7 +7992,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33270835</t>
+            <t xml:space="preserve">33417133</t>
           </r>
           <r>
             <rPr>
@@ -7920,7 +8016,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/30/2023</t>
+            <t xml:space="preserve">08/16/2023</t>
           </r>
         </is>
       </c>
@@ -7929,7 +8025,7 @@
       <c s="12" t="str" r="E219"/>
       <c s="13" t="inlineStr" r="F219">
         <is>
-          <t xml:space="preserve">KAISER PERMANENTE NW REGIONAL LABORATORY</t>
+          <t xml:space="preserve">NOTHING BUNDT CAKES</t>
         </is>
       </c>
       <c s="11" t="str" r="G219"/>
@@ -7939,7 +8035,7 @@
       <c s="12" t="str" r="K219"/>
       <c s="13" t="inlineStr" r="M219">
         <is>
-          <t xml:space="preserve">LAGUARDIA (LGA)</t>
+          <t xml:space="preserve">PARKHILL, PHYLLIS</t>
         </is>
       </c>
       <c s="12" t="str" r="N219"/>
@@ -7949,13 +8045,13 @@
       <c s="15" t="str" r="E220"/>
       <c s="16" t="inlineStr" r="F220">
         <is>
-          <t xml:space="preserve">13705 NE AIRPORT WAY</t>
+          <t xml:space="preserve">304 W BAY AREA BLVD.</t>
         </is>
       </c>
       <c s="15" t="str" r="K220"/>
       <c s="16" t="inlineStr" r="M220">
         <is>
-          <t xml:space="preserve">LAGUARDIA AIRPORT</t>
+          <t xml:space="preserve">2100 SPACE PARK DR.</t>
         </is>
       </c>
       <c s="15" t="str" r="N220"/>
@@ -7977,13 +8073,13 @@
       <c s="15" t="str" r="E222"/>
       <c s="16" t="inlineStr" r="F222">
         <is>
-          <t xml:space="preserve">MANHATTAN, NY 10036</t>
+          <t xml:space="preserve">FONDREN, TX 77598</t>
         </is>
       </c>
       <c s="15" t="str" r="K222"/>
       <c s="16" t="inlineStr" r="M222">
         <is>
-          <t xml:space="preserve">FLUSHING, NY 11371</t>
+          <t xml:space="preserve">CLEAR LAKE, TX 77058</t>
         </is>
       </c>
       <c s="15" t="str" r="N222"/>
@@ -8049,7 +8145,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10.00</t>
+            <t xml:space="preserve">24.00</t>
           </r>
         </is>
       </c>
@@ -8076,18 +8172,6 @@
             </rPr>
             <t xml:space="preserve">PU TM : </t>
           </r>
-          <r>
-            <rPr>
-              <b val="0"/>
-              <i val="0"/>
-              <strike val="0"/>
-              <u val="none"/>
-              <sz val="9"/>
-              <color rgb="FF000000"/>
-              <rFont val="Arial"/>
-            </rPr>
-            <t xml:space="preserve">5/30/2023 04:58</t>
-          </r>
         </is>
       </c>
       <c s="15" t="str" r="K224"/>
@@ -8105,18 +8189,6 @@
             </rPr>
             <t xml:space="preserve">DEL TM : </t>
           </r>
-          <r>
-            <rPr>
-              <b val="0"/>
-              <i val="0"/>
-              <strike val="0"/>
-              <u val="none"/>
-              <sz val="9"/>
-              <color rgb="FF000000"/>
-              <rFont val="Arial"/>
-            </rPr>
-            <t xml:space="preserve">5/30/2023 05:00</t>
-          </r>
         </is>
       </c>
       <c s="15" t="str" r="N224"/>
@@ -8146,7 +8218,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10088885</t>
+            <t xml:space="preserve">10235146</t>
           </r>
         </is>
       </c>
@@ -8183,7 +8255,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33269914</t>
+            <t xml:space="preserve">33417160</t>
           </r>
           <r>
             <rPr>
@@ -8207,7 +8279,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/29/2023</t>
+            <t xml:space="preserve">08/17/2023</t>
           </r>
         </is>
       </c>
@@ -8216,7 +8288,7 @@
       <c s="12" t="str" r="E227"/>
       <c s="13" t="inlineStr" r="F227">
         <is>
-          <t xml:space="preserve">MEMPHIS (MEM)</t>
+          <t xml:space="preserve">NOTHING BUNDT CAKES</t>
         </is>
       </c>
       <c s="11" t="str" r="G227"/>
@@ -8226,7 +8298,7 @@
       <c s="12" t="str" r="K227"/>
       <c s="13" t="inlineStr" r="M227">
         <is>
-          <t xml:space="preserve">OXFORD LAB</t>
+          <t xml:space="preserve">PARKHILL, PHYLLIS</t>
         </is>
       </c>
       <c s="12" t="str" r="N227"/>
@@ -8236,13 +8308,13 @@
       <c s="15" t="str" r="E228"/>
       <c s="16" t="inlineStr" r="F228">
         <is>
-          <t xml:space="preserve">2491 Winchester Rd # 113</t>
+          <t xml:space="preserve">304 W BAY AREA BLVD.</t>
         </is>
       </c>
       <c s="15" t="str" r="K228"/>
       <c s="16" t="inlineStr" r="M228">
         <is>
-          <t xml:space="preserve">5846 DISTRIBUTION DRIVE</t>
+          <t xml:space="preserve">2100 SPACE PARK DR.</t>
         </is>
       </c>
       <c s="15" t="str" r="N228"/>
@@ -8250,7 +8322,7 @@
     <row r="229" ht="11.85" customHeight="0">
       <c s="16" t="inlineStr" r="B229">
         <is>
-          <t xml:space="preserve">DL</t>
+          <t xml:space="preserve">PU</t>
         </is>
       </c>
       <c s="15" t="str" r="E229"/>
@@ -8264,13 +8336,13 @@
       <c s="15" t="str" r="E230"/>
       <c s="16" t="inlineStr" r="F230">
         <is>
-          <t xml:space="preserve">MEMPHIS, TN 38116</t>
+          <t xml:space="preserve">FONDREN, TX 77598</t>
         </is>
       </c>
       <c s="15" t="str" r="K230"/>
       <c s="16" t="inlineStr" r="M230">
         <is>
-          <t xml:space="preserve">MEMPHIS, TN 38141</t>
+          <t xml:space="preserve">CLEAR LAKE, TX 77058</t>
         </is>
       </c>
       <c s="15" t="str" r="N230"/>
@@ -8336,7 +8408,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10.00</t>
+            <t xml:space="preserve">24.00</t>
           </r>
         </is>
       </c>
@@ -8363,18 +8435,6 @@
             </rPr>
             <t xml:space="preserve">PU TM : </t>
           </r>
-          <r>
-            <rPr>
-              <b val="0"/>
-              <i val="0"/>
-              <strike val="0"/>
-              <u val="none"/>
-              <sz val="9"/>
-              <color rgb="FF000000"/>
-              <rFont val="Arial"/>
-            </rPr>
-            <t xml:space="preserve">5/29/2023 10:36</t>
-          </r>
         </is>
       </c>
       <c s="15" t="str" r="K232"/>
@@ -8392,18 +8452,6 @@
             </rPr>
             <t xml:space="preserve">DEL TM : </t>
           </r>
-          <r>
-            <rPr>
-              <b val="0"/>
-              <i val="0"/>
-              <strike val="0"/>
-              <u val="none"/>
-              <sz val="9"/>
-              <color rgb="FF000000"/>
-              <rFont val="Arial"/>
-            </rPr>
-            <t xml:space="preserve">5/29/2023 10:37</t>
-          </r>
         </is>
       </c>
       <c s="15" t="str" r="N232"/>
@@ -8433,7 +8481,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10087964</t>
+            <t xml:space="preserve">10235173</t>
           </r>
         </is>
       </c>
@@ -8470,7 +8518,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33270076</t>
+            <t xml:space="preserve">33424554</t>
           </r>
           <r>
             <rPr>
@@ -8494,7 +8542,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/29/2023</t>
+            <t xml:space="preserve">08/21/2023</t>
           </r>
         </is>
       </c>
@@ -8503,7 +8551,7 @@
       <c s="12" t="str" r="E235"/>
       <c s="13" t="inlineStr" r="F235">
         <is>
-          <t xml:space="preserve">MEMPHIS (MEM)</t>
+          <t xml:space="preserve">NOTHING BUNDT CAKES</t>
         </is>
       </c>
       <c s="11" t="str" r="G235"/>
@@ -8513,7 +8561,7 @@
       <c s="12" t="str" r="K235"/>
       <c s="13" t="inlineStr" r="M235">
         <is>
-          <t xml:space="preserve">OXFORD LAB</t>
+          <t xml:space="preserve">PARKHILL, PHYLLIS</t>
         </is>
       </c>
       <c s="12" t="str" r="N235"/>
@@ -8523,13 +8571,13 @@
       <c s="15" t="str" r="E236"/>
       <c s="16" t="inlineStr" r="F236">
         <is>
-          <t xml:space="preserve">2491 Winchester Rd # 113</t>
+          <t xml:space="preserve">304 W BAY AREA BLVD.</t>
         </is>
       </c>
       <c s="15" t="str" r="K236"/>
       <c s="16" t="inlineStr" r="M236">
         <is>
-          <t xml:space="preserve">5846 DISTRIBUTION DRIVE</t>
+          <t xml:space="preserve">2100 SPACE PARK DR.</t>
         </is>
       </c>
       <c s="15" t="str" r="N236"/>
@@ -8537,7 +8585,7 @@
     <row r="237" ht="11.85" customHeight="0">
       <c s="16" t="inlineStr" r="B237">
         <is>
-          <t xml:space="preserve">DL</t>
+          <t xml:space="preserve">PU</t>
         </is>
       </c>
       <c s="15" t="str" r="E237"/>
@@ -8551,13 +8599,13 @@
       <c s="15" t="str" r="E238"/>
       <c s="16" t="inlineStr" r="F238">
         <is>
-          <t xml:space="preserve">MEMPHIS, TN 38116</t>
+          <t xml:space="preserve">FONDREN, TX 77598</t>
         </is>
       </c>
       <c s="15" t="str" r="K238"/>
       <c s="16" t="inlineStr" r="M238">
         <is>
-          <t xml:space="preserve">MEMPHIS, TN 38141</t>
+          <t xml:space="preserve">CLEAR LAKE, TX 77058</t>
         </is>
       </c>
       <c s="15" t="str" r="N238"/>
@@ -8623,7 +8671,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10.00</t>
+            <t xml:space="preserve">24.00</t>
           </r>
         </is>
       </c>
@@ -8660,7 +8708,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 12:06</t>
+            <t xml:space="preserve">8/21/2023 06:55</t>
           </r>
         </is>
       </c>
@@ -8689,7 +8737,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 12:08</t>
+            <t xml:space="preserve">8/21/2023 06:56</t>
           </r>
         </is>
       </c>
@@ -8720,7 +8768,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10088126</t>
+            <t xml:space="preserve">10242555</t>
           </r>
         </is>
       </c>
@@ -8757,7 +8805,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33270093</t>
+            <t xml:space="preserve">33425280</t>
           </r>
           <r>
             <rPr>
@@ -8781,7 +8829,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/29/2023</t>
+            <t xml:space="preserve">08/21/2023</t>
           </r>
         </is>
       </c>
@@ -8790,7 +8838,7 @@
       <c s="12" t="str" r="E243"/>
       <c s="13" t="inlineStr" r="F243">
         <is>
-          <t xml:space="preserve">MEMPHIS (MEM)</t>
+          <t xml:space="preserve">NOTHING BUNDT CAKES</t>
         </is>
       </c>
       <c s="11" t="str" r="G243"/>
@@ -8800,7 +8848,7 @@
       <c s="12" t="str" r="K243"/>
       <c s="13" t="inlineStr" r="M243">
         <is>
-          <t xml:space="preserve">OXFORD LAB</t>
+          <t xml:space="preserve">PARKHILL, PHYLLIS</t>
         </is>
       </c>
       <c s="12" t="str" r="N243"/>
@@ -8810,13 +8858,13 @@
       <c s="15" t="str" r="E244"/>
       <c s="16" t="inlineStr" r="F244">
         <is>
-          <t xml:space="preserve">2491 Winchester Rd # 113</t>
+          <t xml:space="preserve">304 W BAY AREA BLVD.</t>
         </is>
       </c>
       <c s="15" t="str" r="K244"/>
       <c s="16" t="inlineStr" r="M244">
         <is>
-          <t xml:space="preserve">5846 DISTRIBUTION DRIVE</t>
+          <t xml:space="preserve">2100 SPACE PARK DR.</t>
         </is>
       </c>
       <c s="15" t="str" r="N244"/>
@@ -8824,7 +8872,7 @@
     <row r="245" ht="11.85" customHeight="0">
       <c s="16" t="inlineStr" r="B245">
         <is>
-          <t xml:space="preserve">DL</t>
+          <t xml:space="preserve">PU</t>
         </is>
       </c>
       <c s="15" t="str" r="E245"/>
@@ -8838,13 +8886,13 @@
       <c s="15" t="str" r="E246"/>
       <c s="16" t="inlineStr" r="F246">
         <is>
-          <t xml:space="preserve">MEMPHIS, TN 38116</t>
+          <t xml:space="preserve">FONDREN, TX 77598</t>
         </is>
       </c>
       <c s="15" t="str" r="K246"/>
       <c s="16" t="inlineStr" r="M246">
         <is>
-          <t xml:space="preserve">MEMPHIS, TN 38141</t>
+          <t xml:space="preserve">CLEAR LAKE, TX 77058</t>
         </is>
       </c>
       <c s="15" t="str" r="N246"/>
@@ -8910,7 +8958,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10.00</t>
+            <t xml:space="preserve">24.00</t>
           </r>
         </is>
       </c>
@@ -8937,18 +8985,6 @@
             </rPr>
             <t xml:space="preserve">PU TM : </t>
           </r>
-          <r>
-            <rPr>
-              <b val="0"/>
-              <i val="0"/>
-              <strike val="0"/>
-              <u val="none"/>
-              <sz val="9"/>
-              <color rgb="FF000000"/>
-              <rFont val="Arial"/>
-            </rPr>
-            <t xml:space="preserve">5/29/2023 12:21</t>
-          </r>
         </is>
       </c>
       <c s="15" t="str" r="K248"/>
@@ -8966,18 +9002,6 @@
             </rPr>
             <t xml:space="preserve">DEL TM : </t>
           </r>
-          <r>
-            <rPr>
-              <b val="0"/>
-              <i val="0"/>
-              <strike val="0"/>
-              <u val="none"/>
-              <sz val="9"/>
-              <color rgb="FF000000"/>
-              <rFont val="Arial"/>
-            </rPr>
-            <t xml:space="preserve">5/29/2023 12:23</t>
-          </r>
         </is>
       </c>
       <c s="15" t="str" r="N248"/>
@@ -9007,7 +9031,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10088143</t>
+            <t xml:space="preserve">10243281</t>
           </r>
         </is>
       </c>
@@ -9044,7 +9068,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33270745</t>
+            <t xml:space="preserve">33426321</t>
           </r>
           <r>
             <rPr>
@@ -9068,7 +9092,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/30/2023</t>
+            <t xml:space="preserve">08/21/2023</t>
           </r>
         </is>
       </c>
@@ -9077,7 +9101,7 @@
       <c s="12" t="str" r="E251"/>
       <c s="13" t="inlineStr" r="F251">
         <is>
-          <t xml:space="preserve">MEMPHIS (MEM)</t>
+          <t xml:space="preserve">NOTHING BUNDT CAKES</t>
         </is>
       </c>
       <c s="11" t="str" r="G251"/>
@@ -9087,7 +9111,7 @@
       <c s="12" t="str" r="K251"/>
       <c s="13" t="inlineStr" r="M251">
         <is>
-          <t xml:space="preserve">OXFORD LAB</t>
+          <t xml:space="preserve">PARKHILL, PHYLLIS</t>
         </is>
       </c>
       <c s="12" t="str" r="N251"/>
@@ -9097,13 +9121,13 @@
       <c s="15" t="str" r="E252"/>
       <c s="16" t="inlineStr" r="F252">
         <is>
-          <t xml:space="preserve">2491 Winchester Rd # 113</t>
+          <t xml:space="preserve">304 W BAY AREA BLVD.</t>
         </is>
       </c>
       <c s="15" t="str" r="K252"/>
       <c s="16" t="inlineStr" r="M252">
         <is>
-          <t xml:space="preserve">5846 DISTRIBUTION DRIVE</t>
+          <t xml:space="preserve">2100 SPACE PARK DR.</t>
         </is>
       </c>
       <c s="15" t="str" r="N252"/>
@@ -9111,7 +9135,7 @@
     <row r="253" ht="11.85" customHeight="0">
       <c s="16" t="inlineStr" r="B253">
         <is>
-          <t xml:space="preserve">DL</t>
+          <t xml:space="preserve">PU</t>
         </is>
       </c>
       <c s="15" t="str" r="E253"/>
@@ -9125,13 +9149,13 @@
       <c s="15" t="str" r="E254"/>
       <c s="16" t="inlineStr" r="F254">
         <is>
-          <t xml:space="preserve">MEMPHIS, TN 38116</t>
+          <t xml:space="preserve">FONDREN, TX 77598</t>
         </is>
       </c>
       <c s="15" t="str" r="K254"/>
       <c s="16" t="inlineStr" r="M254">
         <is>
-          <t xml:space="preserve">MEMPHIS, TN 38141</t>
+          <t xml:space="preserve">CLEAR LAKE, TX 77058</t>
         </is>
       </c>
       <c s="15" t="str" r="N254"/>
@@ -9197,7 +9221,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10.00</t>
+            <t xml:space="preserve">24.00</t>
           </r>
         </is>
       </c>
@@ -9234,7 +9258,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/30/2023 02:32</t>
+            <t xml:space="preserve">8/21/2023 22:48</t>
           </r>
         </is>
       </c>
@@ -9263,7 +9287,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/30/2023 02:34</t>
+            <t xml:space="preserve">8/21/2023 22:51</t>
           </r>
         </is>
       </c>
@@ -9294,7 +9318,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10088795</t>
+            <t xml:space="preserve">10244322</t>
           </r>
         </is>
       </c>
@@ -9331,7 +9355,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33270825</t>
+            <t xml:space="preserve">33426441</t>
           </r>
           <r>
             <rPr>
@@ -9355,7 +9379,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/30/2023</t>
+            <t xml:space="preserve">08/21/2023</t>
           </r>
         </is>
       </c>
@@ -9364,7 +9388,7 @@
       <c s="12" t="str" r="E259"/>
       <c s="13" t="inlineStr" r="F259">
         <is>
-          <t xml:space="preserve">MEMPHIS (MEM)</t>
+          <t xml:space="preserve">PORT PLASTICS</t>
         </is>
       </c>
       <c s="11" t="str" r="G259"/>
@@ -9374,7 +9398,7 @@
       <c s="12" t="str" r="K259"/>
       <c s="13" t="inlineStr" r="M259">
         <is>
-          <t xml:space="preserve">OXFORD LAB</t>
+          <t xml:space="preserve">ALPHA MACHINE</t>
         </is>
       </c>
       <c s="12" t="str" r="N259"/>
@@ -9384,13 +9408,13 @@
       <c s="15" t="str" r="E260"/>
       <c s="16" t="inlineStr" r="F260">
         <is>
-          <t xml:space="preserve">2491 Winchester Rd # 113</t>
+          <t xml:space="preserve">550 E. TRIMBLE ROAD #A</t>
         </is>
       </c>
       <c s="15" t="str" r="K260"/>
       <c s="16" t="inlineStr" r="M260">
         <is>
-          <t xml:space="preserve">5846 DISTRIBUTION DRIVE</t>
+          <t xml:space="preserve">933 CHITTENDEN LANE</t>
         </is>
       </c>
       <c s="15" t="str" r="N260"/>
@@ -9398,7 +9422,7 @@
     <row r="261" ht="11.85" customHeight="0">
       <c s="16" t="inlineStr" r="B261">
         <is>
-          <t xml:space="preserve">DL</t>
+          <t xml:space="preserve">PU</t>
         </is>
       </c>
       <c s="15" t="str" r="E261"/>
@@ -9412,13 +9436,13 @@
       <c s="15" t="str" r="E262"/>
       <c s="16" t="inlineStr" r="F262">
         <is>
-          <t xml:space="preserve">MEMPHIS, TN 38116</t>
+          <t xml:space="preserve">SAN JOSE, CA 95131</t>
         </is>
       </c>
       <c s="15" t="str" r="K262"/>
       <c s="16" t="inlineStr" r="M262">
         <is>
-          <t xml:space="preserve">MEMPHIS, TN 38141</t>
+          <t xml:space="preserve">CAPITOLA, CA 95010</t>
         </is>
       </c>
       <c s="15" t="str" r="N262"/>
@@ -9484,7 +9508,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10.00</t>
+            <t xml:space="preserve">50.00</t>
           </r>
         </is>
       </c>
@@ -9521,7 +9545,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/30/2023 03:50</t>
+            <t xml:space="preserve">8/21/2023 21:43</t>
           </r>
         </is>
       </c>
@@ -9550,7 +9574,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/30/2023 03:52</t>
+            <t xml:space="preserve">8/21/2023 21:52</t>
           </r>
         </is>
       </c>
@@ -9581,7 +9605,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10088875</t>
+            <t xml:space="preserve">10244442</t>
           </r>
         </is>
       </c>
@@ -9618,7 +9642,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33270835</t>
+            <t xml:space="preserve">33426612</t>
           </r>
           <r>
             <rPr>
@@ -9642,7 +9666,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/30/2023</t>
+            <t xml:space="preserve">08/22/2023</t>
           </r>
         </is>
       </c>
@@ -9651,7 +9675,7 @@
       <c s="12" t="str" r="E267"/>
       <c s="13" t="inlineStr" r="F267">
         <is>
-          <t xml:space="preserve">MEMPHIS (MEM)</t>
+          <t xml:space="preserve">NOTHING BUNDT CAKES</t>
         </is>
       </c>
       <c s="11" t="str" r="G267"/>
@@ -9661,7 +9685,7 @@
       <c s="12" t="str" r="K267"/>
       <c s="13" t="inlineStr" r="M267">
         <is>
-          <t xml:space="preserve">OXFORD LAB</t>
+          <t xml:space="preserve">PARKHILL, PHYLLIS</t>
         </is>
       </c>
       <c s="12" t="str" r="N267"/>
@@ -9671,13 +9695,13 @@
       <c s="15" t="str" r="E268"/>
       <c s="16" t="inlineStr" r="F268">
         <is>
-          <t xml:space="preserve">2491 Winchester Rd # 113</t>
+          <t xml:space="preserve">304 W BAY AREA BLVD.</t>
         </is>
       </c>
       <c s="15" t="str" r="K268"/>
       <c s="16" t="inlineStr" r="M268">
         <is>
-          <t xml:space="preserve">5846 DISTRIBUTION DRIVE</t>
+          <t xml:space="preserve">2100 SPACE PARK DR.</t>
         </is>
       </c>
       <c s="15" t="str" r="N268"/>
@@ -9685,7 +9709,7 @@
     <row r="269" ht="11.85" customHeight="0">
       <c s="16" t="inlineStr" r="B269">
         <is>
-          <t xml:space="preserve">DL</t>
+          <t xml:space="preserve">PU</t>
         </is>
       </c>
       <c s="15" t="str" r="E269"/>
@@ -9699,13 +9723,13 @@
       <c s="15" t="str" r="E270"/>
       <c s="16" t="inlineStr" r="F270">
         <is>
-          <t xml:space="preserve">MEMPHIS, TN 38116</t>
+          <t xml:space="preserve">FONDREN, TX 77598</t>
         </is>
       </c>
       <c s="15" t="str" r="K270"/>
       <c s="16" t="inlineStr" r="M270">
         <is>
-          <t xml:space="preserve">MEMPHIS, TN 38141</t>
+          <t xml:space="preserve">CLEAR LAKE, TX 77058</t>
         </is>
       </c>
       <c s="15" t="str" r="N270"/>
@@ -9771,7 +9795,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10.00</t>
+            <t xml:space="preserve">24.00</t>
           </r>
         </is>
       </c>
@@ -9798,18 +9822,6 @@
             </rPr>
             <t xml:space="preserve">PU TM : </t>
           </r>
-          <r>
-            <rPr>
-              <b val="0"/>
-              <i val="0"/>
-              <strike val="0"/>
-              <u val="none"/>
-              <sz val="9"/>
-              <color rgb="FF000000"/>
-              <rFont val="Arial"/>
-            </rPr>
-            <t xml:space="preserve">5/30/2023 04:07</t>
-          </r>
         </is>
       </c>
       <c s="15" t="str" r="K272"/>
@@ -9827,18 +9839,6 @@
             </rPr>
             <t xml:space="preserve">DEL TM : </t>
           </r>
-          <r>
-            <rPr>
-              <b val="0"/>
-              <i val="0"/>
-              <strike val="0"/>
-              <u val="none"/>
-              <sz val="9"/>
-              <color rgb="FF000000"/>
-              <rFont val="Arial"/>
-            </rPr>
-            <t xml:space="preserve">5/30/2023 04:08</t>
-          </r>
         </is>
       </c>
       <c s="15" t="str" r="N272"/>
@@ -9868,7 +9868,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10088885</t>
+            <t xml:space="preserve">10244613</t>
           </r>
         </is>
       </c>
@@ -9905,7 +9905,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33262851</t>
+            <t xml:space="preserve">33426698</t>
           </r>
           <r>
             <rPr>
@@ -9929,7 +9929,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/25/2023</t>
+            <t xml:space="preserve">08/22/2023</t>
           </r>
         </is>
       </c>
@@ -10085,6 +10085,18 @@
             </rPr>
             <t xml:space="preserve">PU TM : </t>
           </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">8/22/2023 03:34</t>
+          </r>
         </is>
       </c>
       <c s="15" t="str" r="K280"/>
@@ -10102,6 +10114,18 @@
             </rPr>
             <t xml:space="preserve">DEL TM : </t>
           </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">8/22/2023 03:37</t>
+          </r>
         </is>
       </c>
       <c s="15" t="str" r="N280"/>
@@ -10131,7 +10155,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10080901</t>
+            <t xml:space="preserve">10244699</t>
           </r>
         </is>
       </c>
@@ -10168,7 +10192,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33262901</t>
+            <t xml:space="preserve">33426830</t>
           </r>
           <r>
             <rPr>
@@ -10192,7 +10216,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/25/2023</t>
+            <t xml:space="preserve">08/22/2023</t>
           </r>
         </is>
       </c>
@@ -10201,7 +10225,7 @@
       <c s="12" t="str" r="E283"/>
       <c s="13" t="inlineStr" r="F283">
         <is>
-          <t xml:space="preserve">NOTHING BUNDT CAKES</t>
+          <t xml:space="preserve">PORT PLASTICS</t>
         </is>
       </c>
       <c s="11" t="str" r="G283"/>
@@ -10211,7 +10235,7 @@
       <c s="12" t="str" r="K283"/>
       <c s="13" t="inlineStr" r="M283">
         <is>
-          <t xml:space="preserve">PARKHILL, PHYLLIS</t>
+          <t xml:space="preserve">ALPHA MACHINE</t>
         </is>
       </c>
       <c s="12" t="str" r="N283"/>
@@ -10221,13 +10245,13 @@
       <c s="15" t="str" r="E284"/>
       <c s="16" t="inlineStr" r="F284">
         <is>
-          <t xml:space="preserve">304 W BAY AREA BLVD.</t>
+          <t xml:space="preserve">550 E. TRIMBLE ROAD #A</t>
         </is>
       </c>
       <c s="15" t="str" r="K284"/>
       <c s="16" t="inlineStr" r="M284">
         <is>
-          <t xml:space="preserve">2100 SPACE PARK DR.</t>
+          <t xml:space="preserve">933 CHITTENDEN LANE</t>
         </is>
       </c>
       <c s="15" t="str" r="N284"/>
@@ -10249,13 +10273,13 @@
       <c s="15" t="str" r="E286"/>
       <c s="16" t="inlineStr" r="F286">
         <is>
-          <t xml:space="preserve">FONDREN, TX 77598</t>
+          <t xml:space="preserve">SAN JOSE, CA 95131</t>
         </is>
       </c>
       <c s="15" t="str" r="K286"/>
       <c s="16" t="inlineStr" r="M286">
         <is>
-          <t xml:space="preserve">CLEAR LAKE, TX 77058</t>
+          <t xml:space="preserve">CAPITOLA, CA 95010</t>
         </is>
       </c>
       <c s="15" t="str" r="N286"/>
@@ -10321,7 +10345,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">24.00</t>
+            <t xml:space="preserve">50.00</t>
           </r>
         </is>
       </c>
@@ -10348,6 +10372,18 @@
             </rPr>
             <t xml:space="preserve">PU TM : </t>
           </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">8/22/2023 02:41</t>
+          </r>
         </is>
       </c>
       <c s="15" t="str" r="K288"/>
@@ -10365,6 +10401,18 @@
             </rPr>
             <t xml:space="preserve">DEL TM : </t>
           </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">8/22/2023 02:49</t>
+          </r>
         </is>
       </c>
       <c s="15" t="str" r="N288"/>
@@ -10394,7 +10442,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10080951</t>
+            <t xml:space="preserve">10244831</t>
           </r>
         </is>
       </c>
@@ -10431,7 +10479,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33263086</t>
+            <t xml:space="preserve">33426875</t>
           </r>
           <r>
             <rPr>
@@ -10455,7 +10503,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/25/2023</t>
+            <t xml:space="preserve">08/22/2023</t>
           </r>
         </is>
       </c>
@@ -10464,7 +10512,7 @@
       <c s="12" t="str" r="E291"/>
       <c s="13" t="inlineStr" r="F291">
         <is>
-          <t xml:space="preserve">NOTHING BUNDT CAKES</t>
+          <t xml:space="preserve">FEDEX SAMEDAY SERVICE</t>
         </is>
       </c>
       <c s="11" t="str" r="G291"/>
@@ -10474,7 +10522,7 @@
       <c s="12" t="str" r="K291"/>
       <c s="13" t="inlineStr" r="M291">
         <is>
-          <t xml:space="preserve">PARKHILL, PHYLLIS</t>
+          <t xml:space="preserve">CITY NATIONAL BANK OF FLORIDA</t>
         </is>
       </c>
       <c s="12" t="str" r="N291"/>
@@ -10484,13 +10532,13 @@
       <c s="15" t="str" r="E292"/>
       <c s="16" t="inlineStr" r="F292">
         <is>
-          <t xml:space="preserve">304 W BAY AREA BLVD.</t>
+          <t xml:space="preserve">C/O IBC MESSENGER INC</t>
         </is>
       </c>
       <c s="15" t="str" r="K292"/>
       <c s="16" t="inlineStr" r="M292">
         <is>
-          <t xml:space="preserve">2100 SPACE PARK DR.</t>
+          <t xml:space="preserve">2855 S LE JEUNE RD</t>
         </is>
       </c>
       <c s="15" t="str" r="N292"/>
@@ -10512,13 +10560,13 @@
       <c s="15" t="str" r="E294"/>
       <c s="16" t="inlineStr" r="F294">
         <is>
-          <t xml:space="preserve">FONDREN, TX 77598</t>
+          <t xml:space="preserve">DORAL, FL 33126</t>
         </is>
       </c>
       <c s="15" t="str" r="K294"/>
       <c s="16" t="inlineStr" r="M294">
         <is>
-          <t xml:space="preserve">CLEAR LAKE, TX 77058</t>
+          <t xml:space="preserve">COCONUT GROVE, FL 33134</t>
         </is>
       </c>
       <c s="15" t="str" r="N294"/>
@@ -10584,7 +10632,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">24.00</t>
+            <t xml:space="preserve">3.00</t>
           </r>
         </is>
       </c>
@@ -10611,6 +10659,18 @@
             </rPr>
             <t xml:space="preserve">PU TM : </t>
           </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">8/22/2023 06:19</t>
+          </r>
         </is>
       </c>
       <c s="15" t="str" r="K296"/>
@@ -10628,6 +10688,18 @@
             </rPr>
             <t xml:space="preserve">DEL TM : </t>
           </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">8/22/2023 06:22</t>
+          </r>
         </is>
       </c>
       <c s="15" t="str" r="N296"/>
@@ -10657,7 +10729,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10081136</t>
+            <t xml:space="preserve">10244876</t>
           </r>
         </is>
       </c>
@@ -10694,7 +10766,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33263377</t>
+            <t xml:space="preserve">33426916</t>
           </r>
           <r>
             <rPr>
@@ -10718,7 +10790,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/25/2023</t>
+            <t xml:space="preserve">08/22/2023</t>
           </r>
         </is>
       </c>
@@ -10727,7 +10799,7 @@
       <c s="12" t="str" r="E299"/>
       <c s="13" t="inlineStr" r="F299">
         <is>
-          <t xml:space="preserve">NOTHING BUNDT CAKES</t>
+          <t xml:space="preserve">FEDEX STATION</t>
         </is>
       </c>
       <c s="11" t="str" r="G299"/>
@@ -10737,7 +10809,7 @@
       <c s="12" t="str" r="K299"/>
       <c s="13" t="inlineStr" r="M299">
         <is>
-          <t xml:space="preserve">PARKHILL, PHYLLIS</t>
+          <t xml:space="preserve">CRC HEALTH OREGON INC</t>
         </is>
       </c>
       <c s="12" t="str" r="N299"/>
@@ -10747,13 +10819,13 @@
       <c s="15" t="str" r="E300"/>
       <c s="16" t="inlineStr" r="F300">
         <is>
-          <t xml:space="preserve">304 W BAY AREA BLVD.</t>
+          <t xml:space="preserve">4344 N PORT CENTER WAY</t>
         </is>
       </c>
       <c s="15" t="str" r="K300"/>
       <c s="16" t="inlineStr" r="M300">
         <is>
-          <t xml:space="preserve">2100 SPACE PARK DR.</t>
+          <t xml:space="preserve">324 NORTHWEST DAVIS ST</t>
         </is>
       </c>
       <c s="15" t="str" r="N300"/>
@@ -10775,13 +10847,13 @@
       <c s="15" t="str" r="E302"/>
       <c s="16" t="inlineStr" r="F302">
         <is>
-          <t xml:space="preserve">FONDREN, TX 77598</t>
+          <t xml:space="preserve">PORTLAND, OR 97217</t>
         </is>
       </c>
       <c s="15" t="str" r="K302"/>
       <c s="16" t="inlineStr" r="M302">
         <is>
-          <t xml:space="preserve">CLEAR LAKE, TX 77058</t>
+          <t xml:space="preserve">PORTLAND, OR 97209</t>
         </is>
       </c>
       <c s="15" t="str" r="N302"/>
@@ -10847,7 +10919,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">24.00</t>
+            <t xml:space="preserve">151.00</t>
           </r>
         </is>
       </c>
@@ -10874,6 +10946,18 @@
             </rPr>
             <t xml:space="preserve">PU TM : </t>
           </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">8/22/2023 03:52</t>
+          </r>
         </is>
       </c>
       <c s="15" t="str" r="K304"/>
@@ -10891,6 +10975,18 @@
             </rPr>
             <t xml:space="preserve">DEL TM : </t>
           </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">8/22/2023 03:54</t>
+          </r>
         </is>
       </c>
       <c s="15" t="str" r="N304"/>
@@ -10920,7 +11016,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10081427</t>
+            <t xml:space="preserve">10244917</t>
           </r>
         </is>
       </c>
@@ -10957,7 +11053,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33264922</t>
+            <t xml:space="preserve">33429090</t>
           </r>
           <r>
             <rPr>
@@ -10981,7 +11077,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/26/2023</t>
+            <t xml:space="preserve">08/23/2023</t>
           </r>
         </is>
       </c>
@@ -11183,7 +11279,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10082972</t>
+            <t xml:space="preserve">10247091</t>
           </r>
         </is>
       </c>
@@ -11220,7 +11316,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33268901</t>
+            <t xml:space="preserve">33429169</t>
           </r>
           <r>
             <rPr>
@@ -11244,7 +11340,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/29/2023</t>
+            <t xml:space="preserve">08/23/2023</t>
           </r>
         </is>
       </c>
@@ -11400,18 +11496,6 @@
             </rPr>
             <t xml:space="preserve">PU TM : </t>
           </r>
-          <r>
-            <rPr>
-              <b val="0"/>
-              <i val="0"/>
-              <strike val="0"/>
-              <u val="none"/>
-              <sz val="9"/>
-              <color rgb="FF000000"/>
-              <rFont val="Arial"/>
-            </rPr>
-            <t xml:space="preserve">5/29/2023 00:20</t>
-          </r>
         </is>
       </c>
       <c s="15" t="str" r="K320"/>
@@ -11429,18 +11513,6 @@
             </rPr>
             <t xml:space="preserve">DEL TM : </t>
           </r>
-          <r>
-            <rPr>
-              <b val="0"/>
-              <i val="0"/>
-              <strike val="0"/>
-              <u val="none"/>
-              <sz val="9"/>
-              <color rgb="FF000000"/>
-              <rFont val="Arial"/>
-            </rPr>
-            <t xml:space="preserve">5/29/2023 00:22</t>
-          </r>
         </is>
       </c>
       <c s="15" t="str" r="N320"/>
@@ -11470,7 +11542,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10086951</t>
+            <t xml:space="preserve">10247170</t>
           </r>
         </is>
       </c>
@@ -11507,7 +11579,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33268962</t>
+            <t xml:space="preserve">33429367</t>
           </r>
           <r>
             <rPr>
@@ -11531,7 +11603,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/29/2023</t>
+            <t xml:space="preserve">08/23/2023</t>
           </r>
         </is>
       </c>
@@ -11697,7 +11769,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 01:16</t>
+            <t xml:space="preserve">8/23/2023 05:13</t>
           </r>
         </is>
       </c>
@@ -11726,7 +11798,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 01:17</t>
+            <t xml:space="preserve">8/23/2023 05:16</t>
           </r>
         </is>
       </c>
@@ -11757,7 +11829,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10087012</t>
+            <t xml:space="preserve">10247368</t>
           </r>
         </is>
       </c>
@@ -11794,7 +11866,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33270055</t>
+            <t xml:space="preserve">33429442</t>
           </r>
           <r>
             <rPr>
@@ -11818,7 +11890,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/29/2023</t>
+            <t xml:space="preserve">08/23/2023</t>
           </r>
         </is>
       </c>
@@ -11827,7 +11899,7 @@
       <c s="12" t="str" r="E331"/>
       <c s="13" t="inlineStr" r="F331">
         <is>
-          <t xml:space="preserve">NOTHING BUNDT CAKES</t>
+          <t xml:space="preserve">PORT PLASTICS</t>
         </is>
       </c>
       <c s="11" t="str" r="G331"/>
@@ -11837,7 +11909,7 @@
       <c s="12" t="str" r="K331"/>
       <c s="13" t="inlineStr" r="M331">
         <is>
-          <t xml:space="preserve">PARKHILL, PHYLLIS</t>
+          <t xml:space="preserve">ALPHA MACHINE</t>
         </is>
       </c>
       <c s="12" t="str" r="N331"/>
@@ -11847,13 +11919,13 @@
       <c s="15" t="str" r="E332"/>
       <c s="16" t="inlineStr" r="F332">
         <is>
-          <t xml:space="preserve">304 W BAY AREA BLVD.</t>
+          <t xml:space="preserve">550 E. TRIMBLE ROAD #A</t>
         </is>
       </c>
       <c s="15" t="str" r="K332"/>
       <c s="16" t="inlineStr" r="M332">
         <is>
-          <t xml:space="preserve">2100 SPACE PARK DR.</t>
+          <t xml:space="preserve">933 CHITTENDEN LANE</t>
         </is>
       </c>
       <c s="15" t="str" r="N332"/>
@@ -11875,13 +11947,13 @@
       <c s="15" t="str" r="E334"/>
       <c s="16" t="inlineStr" r="F334">
         <is>
-          <t xml:space="preserve">FONDREN, TX 77598</t>
+          <t xml:space="preserve">SAN JOSE, CA 95131</t>
         </is>
       </c>
       <c s="15" t="str" r="K334"/>
       <c s="16" t="inlineStr" r="M334">
         <is>
-          <t xml:space="preserve">CLEAR LAKE, TX 77058</t>
+          <t xml:space="preserve">CAPITOLA, CA 95010</t>
         </is>
       </c>
       <c s="15" t="str" r="N334"/>
@@ -11947,7 +12019,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">24.00</t>
+            <t xml:space="preserve">50.00</t>
           </r>
         </is>
       </c>
@@ -11984,7 +12056,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 11:47</t>
+            <t xml:space="preserve">8/23/2023 04:11</t>
           </r>
         </is>
       </c>
@@ -12013,7 +12085,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2023 11:48</t>
+            <t xml:space="preserve">8/23/2023 04:18</t>
           </r>
         </is>
       </c>
@@ -12044,7 +12116,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10088105</t>
+            <t xml:space="preserve">10247443</t>
           </r>
         </is>
       </c>
@@ -12081,7 +12153,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33270743</t>
+            <t xml:space="preserve">33429501</t>
           </r>
           <r>
             <rPr>
@@ -12105,7 +12177,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/30/2023</t>
+            <t xml:space="preserve">08/23/2023</t>
           </r>
         </is>
       </c>
@@ -12114,7 +12186,7 @@
       <c s="12" t="str" r="E339"/>
       <c s="13" t="inlineStr" r="F339">
         <is>
-          <t xml:space="preserve">NOTHING BUNDT CAKES</t>
+          <t xml:space="preserve">FEDEX SAMEDAY SERVICE</t>
         </is>
       </c>
       <c s="11" t="str" r="G339"/>
@@ -12124,7 +12196,7 @@
       <c s="12" t="str" r="K339"/>
       <c s="13" t="inlineStr" r="M339">
         <is>
-          <t xml:space="preserve">PARKHILL, PHYLLIS</t>
+          <t xml:space="preserve">CITY NATIONAL BANK OF FLORIDA</t>
         </is>
       </c>
       <c s="12" t="str" r="N339"/>
@@ -12134,13 +12206,13 @@
       <c s="15" t="str" r="E340"/>
       <c s="16" t="inlineStr" r="F340">
         <is>
-          <t xml:space="preserve">304 W BAY AREA BLVD.</t>
+          <t xml:space="preserve">C/O IBC MESSENGER INC</t>
         </is>
       </c>
       <c s="15" t="str" r="K340"/>
       <c s="16" t="inlineStr" r="M340">
         <is>
-          <t xml:space="preserve">2100 SPACE PARK DR.</t>
+          <t xml:space="preserve">2855 S LE JEUNE RD</t>
         </is>
       </c>
       <c s="15" t="str" r="N340"/>
@@ -12162,13 +12234,13 @@
       <c s="15" t="str" r="E342"/>
       <c s="16" t="inlineStr" r="F342">
         <is>
-          <t xml:space="preserve">FONDREN, TX 77598</t>
+          <t xml:space="preserve">DORAL, FL 33126</t>
         </is>
       </c>
       <c s="15" t="str" r="K342"/>
       <c s="16" t="inlineStr" r="M342">
         <is>
-          <t xml:space="preserve">CLEAR LAKE, TX 77058</t>
+          <t xml:space="preserve">COCONUT GROVE, FL 33134</t>
         </is>
       </c>
       <c s="15" t="str" r="N342"/>
@@ -12234,7 +12306,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">2.00</t>
+            <t xml:space="preserve">3.00</t>
           </r>
         </is>
       </c>
@@ -12271,7 +12343,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/30/2023 02:14</t>
+            <t xml:space="preserve">8/23/2023 07:46</t>
           </r>
         </is>
       </c>
@@ -12300,7 +12372,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/30/2023 02:15</t>
+            <t xml:space="preserve">8/23/2023 07:49</t>
           </r>
         </is>
       </c>
@@ -12331,7 +12403,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10088793</t>
+            <t xml:space="preserve">10247502</t>
           </r>
         </is>
       </c>
@@ -12368,7 +12440,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33270946</t>
+            <t xml:space="preserve">33429591</t>
           </r>
           <r>
             <rPr>
@@ -12392,7 +12464,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/30/2023</t>
+            <t xml:space="preserve">08/23/2023</t>
           </r>
         </is>
       </c>
@@ -12401,7 +12473,7 @@
       <c s="12" t="str" r="E347"/>
       <c s="13" t="inlineStr" r="F347">
         <is>
-          <t xml:space="preserve">NOTHING BUNDT CAKES</t>
+          <t xml:space="preserve">FEDEX STATION</t>
         </is>
       </c>
       <c s="11" t="str" r="G347"/>
@@ -12411,7 +12483,7 @@
       <c s="12" t="str" r="K347"/>
       <c s="13" t="inlineStr" r="M347">
         <is>
-          <t xml:space="preserve">PARKHILL, PHYLLIS</t>
+          <t xml:space="preserve">CRC HEALTH OREGON INC</t>
         </is>
       </c>
       <c s="12" t="str" r="N347"/>
@@ -12421,13 +12493,13 @@
       <c s="15" t="str" r="E348"/>
       <c s="16" t="inlineStr" r="F348">
         <is>
-          <t xml:space="preserve">304 W BAY AREA BLVD.</t>
+          <t xml:space="preserve">4344 N PORT CENTER WAY</t>
         </is>
       </c>
       <c s="15" t="str" r="K348"/>
       <c s="16" t="inlineStr" r="M348">
         <is>
-          <t xml:space="preserve">2100 SPACE PARK DR.</t>
+          <t xml:space="preserve">324 NORTHWEST DAVIS ST</t>
         </is>
       </c>
       <c s="15" t="str" r="N348"/>
@@ -12449,13 +12521,13 @@
       <c s="15" t="str" r="E350"/>
       <c s="16" t="inlineStr" r="F350">
         <is>
-          <t xml:space="preserve">FONDREN, TX 77598</t>
+          <t xml:space="preserve">PORTLAND, OR 97217</t>
         </is>
       </c>
       <c s="15" t="str" r="K350"/>
       <c s="16" t="inlineStr" r="M350">
         <is>
-          <t xml:space="preserve">CLEAR LAKE, TX 77058</t>
+          <t xml:space="preserve">PORTLAND, OR 97209</t>
         </is>
       </c>
       <c s="15" t="str" r="N350"/>
@@ -12521,7 +12593,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">2.00</t>
+            <t xml:space="preserve">151.00</t>
           </r>
         </is>
       </c>
@@ -12558,7 +12630,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/30/2023 04:30</t>
+            <t xml:space="preserve">8/23/2023 05:21</t>
           </r>
         </is>
       </c>
@@ -12587,7 +12659,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/30/2023 04:32</t>
+            <t xml:space="preserve">8/23/2023 05:24</t>
           </r>
         </is>
       </c>
@@ -12618,7 +12690,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10088996</t>
+            <t xml:space="preserve">10247592</t>
           </r>
         </is>
       </c>
@@ -12655,7 +12727,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33271044</t>
+            <t xml:space="preserve">33429670</t>
           </r>
           <r>
             <rPr>
@@ -12679,7 +12751,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/30/2023</t>
+            <t xml:space="preserve">08/23/2023</t>
           </r>
         </is>
       </c>
@@ -12688,7 +12760,7 @@
       <c s="12" t="str" r="E355"/>
       <c s="13" t="inlineStr" r="F355">
         <is>
-          <t xml:space="preserve">FEDEX SAMEDAY SERVICE</t>
+          <t xml:space="preserve">NOTHING BUNDT CAKES</t>
         </is>
       </c>
       <c s="11" t="str" r="G355"/>
@@ -12698,7 +12770,7 @@
       <c s="12" t="str" r="K355"/>
       <c s="13" t="inlineStr" r="M355">
         <is>
-          <t xml:space="preserve">CITY NATIONAL BANK OF FLORIDA</t>
+          <t xml:space="preserve">PARKHILL, PHYLLIS</t>
         </is>
       </c>
       <c s="12" t="str" r="N355"/>
@@ -12708,13 +12780,13 @@
       <c s="15" t="str" r="E356"/>
       <c s="16" t="inlineStr" r="F356">
         <is>
-          <t xml:space="preserve">C/O IBC MESSENGER INC</t>
+          <t xml:space="preserve">304 W BAY AREA BLVD.</t>
         </is>
       </c>
       <c s="15" t="str" r="K356"/>
       <c s="16" t="inlineStr" r="M356">
         <is>
-          <t xml:space="preserve">2855 S LE JEUNE RD</t>
+          <t xml:space="preserve">2100 SPACE PARK DR.</t>
         </is>
       </c>
       <c s="15" t="str" r="N356"/>
@@ -12736,13 +12808,13 @@
       <c s="15" t="str" r="E358"/>
       <c s="16" t="inlineStr" r="F358">
         <is>
-          <t xml:space="preserve">DORAL, FL 33126</t>
+          <t xml:space="preserve">FONDREN, TX 77598</t>
         </is>
       </c>
       <c s="15" t="str" r="K358"/>
       <c s="16" t="inlineStr" r="M358">
         <is>
-          <t xml:space="preserve">COCONUT GROVE, FL 33134</t>
+          <t xml:space="preserve">CLEAR LAKE, TX 77058</t>
         </is>
       </c>
       <c s="15" t="str" r="N358"/>
@@ -12808,7 +12880,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">3.00</t>
+            <t xml:space="preserve">24.00</t>
           </r>
         </is>
       </c>
@@ -12835,6 +12907,18 @@
             </rPr>
             <t xml:space="preserve">PU TM : </t>
           </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">8/23/2023 07:56</t>
+          </r>
         </is>
       </c>
       <c s="15" t="str" r="K360"/>
@@ -12852,6 +12936,18 @@
             </rPr>
             <t xml:space="preserve">DEL TM : </t>
           </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">8/23/2023 07:57</t>
+          </r>
         </is>
       </c>
       <c s="15" t="str" r="N360"/>
@@ -12881,7 +12977,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10089094</t>
+            <t xml:space="preserve">10247671</t>
           </r>
         </is>
       </c>
@@ -12918,7 +13014,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33271125</t>
+            <t xml:space="preserve">33432106</t>
           </r>
           <r>
             <rPr>
@@ -12942,7 +13038,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/30/2023</t>
+            <t xml:space="preserve">08/24/2023</t>
           </r>
         </is>
       </c>
@@ -12951,7 +13047,7 @@
       <c s="12" t="str" r="E363"/>
       <c s="13" t="inlineStr" r="F363">
         <is>
-          <t xml:space="preserve">FEDEX SAMEDAY SERVICE</t>
+          <t xml:space="preserve">NOTHING BUNDT CAKES</t>
         </is>
       </c>
       <c s="11" t="str" r="G363"/>
@@ -12961,7 +13057,7 @@
       <c s="12" t="str" r="K363"/>
       <c s="13" t="inlineStr" r="M363">
         <is>
-          <t xml:space="preserve">CITY NATIONAL BANK OF FLORIDA</t>
+          <t xml:space="preserve">PARKHILL, PHYLLIS</t>
         </is>
       </c>
       <c s="12" t="str" r="N363"/>
@@ -12971,13 +13067,13 @@
       <c s="15" t="str" r="E364"/>
       <c s="16" t="inlineStr" r="F364">
         <is>
-          <t xml:space="preserve">C/O IBC MESSENGER INC</t>
+          <t xml:space="preserve">304 W BAY AREA BLVD.</t>
         </is>
       </c>
       <c s="15" t="str" r="K364"/>
       <c s="16" t="inlineStr" r="M364">
         <is>
-          <t xml:space="preserve">2855 S LE JEUNE RD</t>
+          <t xml:space="preserve">2100 SPACE PARK DR.</t>
         </is>
       </c>
       <c s="15" t="str" r="N364"/>
@@ -12999,13 +13095,13 @@
       <c s="15" t="str" r="E366"/>
       <c s="16" t="inlineStr" r="F366">
         <is>
-          <t xml:space="preserve">DORAL, FL 33126</t>
+          <t xml:space="preserve">FONDREN, TX 77598</t>
         </is>
       </c>
       <c s="15" t="str" r="K366"/>
       <c s="16" t="inlineStr" r="M366">
         <is>
-          <t xml:space="preserve">COCONUT GROVE, FL 33134</t>
+          <t xml:space="preserve">CLEAR LAKE, TX 77058</t>
         </is>
       </c>
       <c s="15" t="str" r="N366"/>
@@ -13071,7 +13167,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">3.00</t>
+            <t xml:space="preserve">24.00</t>
           </r>
         </is>
       </c>
@@ -13144,7 +13240,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10089175</t>
+            <t xml:space="preserve">10250101</t>
           </r>
         </is>
       </c>
@@ -13181,7 +13277,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33271784</t>
+            <t xml:space="preserve">33433318</t>
           </r>
           <r>
             <rPr>
@@ -13205,7 +13301,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/30/2023</t>
+            <t xml:space="preserve">08/25/2023</t>
           </r>
         </is>
       </c>
@@ -13214,7 +13310,7 @@
       <c s="12" t="str" r="E371"/>
       <c s="13" t="inlineStr" r="F371">
         <is>
-          <t xml:space="preserve">FEDEX SAMEDAY SERVICE</t>
+          <t xml:space="preserve">NOTHING BUNDT CAKES</t>
         </is>
       </c>
       <c s="11" t="str" r="G371"/>
@@ -13224,7 +13320,7 @@
       <c s="12" t="str" r="K371"/>
       <c s="13" t="inlineStr" r="M371">
         <is>
-          <t xml:space="preserve">CITY NATIONAL BANK OF FLORIDA</t>
+          <t xml:space="preserve">PARKHILL, PHYLLIS</t>
         </is>
       </c>
       <c s="12" t="str" r="N371"/>
@@ -13234,13 +13330,13 @@
       <c s="15" t="str" r="E372"/>
       <c s="16" t="inlineStr" r="F372">
         <is>
-          <t xml:space="preserve">C/O IBC MESSENGER INC</t>
+          <t xml:space="preserve">304 W BAY AREA BLVD.</t>
         </is>
       </c>
       <c s="15" t="str" r="K372"/>
       <c s="16" t="inlineStr" r="M372">
         <is>
-          <t xml:space="preserve">2855 S LE JEUNE RD</t>
+          <t xml:space="preserve">2100 SPACE PARK DR.</t>
         </is>
       </c>
       <c s="15" t="str" r="N372"/>
@@ -13262,13 +13358,13 @@
       <c s="15" t="str" r="E374"/>
       <c s="16" t="inlineStr" r="F374">
         <is>
-          <t xml:space="preserve">DORAL, FL 33126</t>
+          <t xml:space="preserve">FONDREN, TX 77598</t>
         </is>
       </c>
       <c s="15" t="str" r="K374"/>
       <c s="16" t="inlineStr" r="M374">
         <is>
-          <t xml:space="preserve">COCONUT GROVE, FL 33134</t>
+          <t xml:space="preserve">CLEAR LAKE, TX 77058</t>
         </is>
       </c>
       <c s="15" t="str" r="N374"/>
@@ -13334,7 +13430,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">3.00</t>
+            <t xml:space="preserve">24.00</t>
           </r>
         </is>
       </c>
@@ -13361,6 +13457,18 @@
             </rPr>
             <t xml:space="preserve">PU TM : </t>
           </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">8/25/2023 00:41</t>
+          </r>
         </is>
       </c>
       <c s="15" t="str" r="K376"/>
@@ -13407,7 +13515,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10089834</t>
+            <t xml:space="preserve">10251313</t>
           </r>
         </is>
       </c>
@@ -13444,7 +13552,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33262844</t>
+            <t xml:space="preserve">33416652</t>
           </r>
           <r>
             <rPr>
@@ -13468,7 +13576,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/25/2023</t>
+            <t xml:space="preserve">08/16/2023</t>
           </r>
         </is>
       </c>
@@ -13670,7 +13778,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10080894</t>
+            <t xml:space="preserve">10234665</t>
           </r>
         </is>
       </c>
@@ -13707,7 +13815,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33264898</t>
+            <t xml:space="preserve">33417139</t>
           </r>
           <r>
             <rPr>
@@ -13731,7 +13839,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/26/2023</t>
+            <t xml:space="preserve">08/16/2023</t>
           </r>
         </is>
       </c>
@@ -13933,7 +14041,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10082948</t>
+            <t xml:space="preserve">10235152</t>
           </r>
         </is>
       </c>
@@ -13970,7 +14078,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33264962</t>
+            <t xml:space="preserve">33424231</t>
           </r>
           <r>
             <rPr>
@@ -13994,7 +14102,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/26/2023</t>
+            <t xml:space="preserve">08/21/2023</t>
           </r>
         </is>
       </c>
@@ -14196,7 +14304,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10083012</t>
+            <t xml:space="preserve">10242238</t>
           </r>
         </is>
       </c>
@@ -14233,7 +14341,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33265017</t>
+            <t xml:space="preserve">33424362</t>
           </r>
           <r>
             <rPr>
@@ -14257,7 +14365,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/26/2023</t>
+            <t xml:space="preserve">08/21/2023</t>
           </r>
         </is>
       </c>
@@ -14459,7 +14567,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10083067</t>
+            <t xml:space="preserve">10242369</t>
           </r>
         </is>
       </c>
@@ -14496,7 +14604,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33268959</t>
+            <t xml:space="preserve">33426641</t>
           </r>
           <r>
             <rPr>
@@ -14520,7 +14628,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/29/2023</t>
+            <t xml:space="preserve">08/22/2023</t>
           </r>
         </is>
       </c>
@@ -14722,7 +14830,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10087009</t>
+            <t xml:space="preserve">10244642</t>
           </r>
         </is>
       </c>
@@ -14759,7 +14867,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">33270958</t>
+            <t xml:space="preserve">33426772</t>
           </r>
           <r>
             <rPr>
@@ -14783,7 +14891,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">05/30/2023</t>
+            <t xml:space="preserve">08/22/2023</t>
           </r>
         </is>
       </c>
@@ -14949,7 +15057,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/30/2023 05:43</t>
+            <t xml:space="preserve">8/22/2023 05:08</t>
           </r>
         </is>
       </c>
@@ -14978,7 +15086,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/30/2023 05:45</t>
+            <t xml:space="preserve">8/22/2023 05:11</t>
           </r>
         </is>
       </c>
@@ -15009,7 +15117,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">10089008</t>
+            <t xml:space="preserve">10244773</t>
           </r>
         </is>
       </c>
@@ -15033,8 +15141,1395 @@
       <c s="18" t="str" r="M426"/>
       <c s="20" t="str" r="N426"/>
     </row>
-    <row r="427" ht="18" customHeight="1">
-      <c s="7" t="inlineStr" r="B427">
+    <row r="427" ht="13.7" customHeight="0">
+      <c s="10" t="inlineStr" r="B427">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">33426951</t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> / </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">08/22/2023</t>
+          </r>
+        </is>
+      </c>
+      <c s="11" t="str" r="C427"/>
+      <c s="11" t="str" r="D427"/>
+      <c s="12" t="str" r="E427"/>
+      <c s="13" t="inlineStr" r="F427">
+        <is>
+          <t xml:space="preserve">AUTOMATION RV (F5505) </t>
+        </is>
+      </c>
+      <c s="11" t="str" r="G427"/>
+      <c s="11" t="str" r="H427"/>
+      <c s="11" t="str" r="I427"/>
+      <c s="11" t="str" r="J427"/>
+      <c s="12" t="str" r="K427"/>
+      <c s="13" t="inlineStr" r="M427">
+        <is>
+          <t xml:space="preserve">FedEx Ship Center</t>
+        </is>
+      </c>
+      <c s="12" t="str" r="N427"/>
+    </row>
+    <row r="428" ht="1.8" customHeight="0">
+      <c s="14" t="str" r="B428"/>
+      <c s="15" t="str" r="E428"/>
+      <c s="16" t="inlineStr" r="F428">
+        <is>
+          <t xml:space="preserve">304 W BAY AREA BLVD.</t>
+        </is>
+      </c>
+      <c s="15" t="str" r="K428"/>
+      <c s="16" t="inlineStr" r="M428">
+        <is>
+          <t xml:space="preserve">12606 Fuqua St</t>
+        </is>
+      </c>
+      <c s="15" t="str" r="N428"/>
+    </row>
+    <row r="429" ht="11.85" customHeight="0">
+      <c s="16" t="inlineStr" r="B429">
+        <is>
+          <t xml:space="preserve">PU</t>
+        </is>
+      </c>
+      <c s="15" t="str" r="E429"/>
+      <c s="14" t="str" r="F429"/>
+      <c s="15" t="str" r="K429"/>
+      <c s="14" t="str" r="M429"/>
+      <c s="15" t="str" r="N429"/>
+    </row>
+    <row r="430" ht="3.6" customHeight="0">
+      <c s="14" t="str" r="B430"/>
+      <c s="15" t="str" r="E430"/>
+      <c s="16" t="inlineStr" r="F430">
+        <is>
+          <t xml:space="preserve">FONDREN, TX 77598</t>
+        </is>
+      </c>
+      <c s="15" t="str" r="K430"/>
+      <c s="16" t="inlineStr" r="M430">
+        <is>
+          <t xml:space="preserve">HOUSTON, TX 77034</t>
+        </is>
+      </c>
+      <c s="15" t="str" r="N430"/>
+    </row>
+    <row r="431" ht="10.1" customHeight="0">
+      <c s="17" t="inlineStr" r="B431">
+        <is>
+          <r>
+            <rPr>
+              <b/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">PCS : </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">1</t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">     </t>
+          </r>
+          <r>
+            <rPr>
+              <b/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">WT : </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">20.00</t>
+          </r>
+        </is>
+      </c>
+      <c s="15" t="str" r="E431"/>
+      <c s="14" t="str" r="F431"/>
+      <c s="15" t="str" r="K431"/>
+      <c s="14" t="str" r="M431"/>
+      <c s="15" t="str" r="N431"/>
+    </row>
+    <row r="432" ht="5.4" customHeight="0">
+      <c s="14" t="str" r="B432"/>
+      <c s="15" t="str" r="E432"/>
+      <c s="17" t="inlineStr" r="F432">
+        <is>
+          <r>
+            <rPr>
+              <b/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">PU TM : </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">8/22/2023 06:26</t>
+          </r>
+        </is>
+      </c>
+      <c s="15" t="str" r="K432"/>
+      <c s="17" t="inlineStr" r="M432">
+        <is>
+          <r>
+            <rPr>
+              <b/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">DEL TM : </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">8/22/2023 06:29</t>
+          </r>
+        </is>
+      </c>
+      <c s="15" t="str" r="N432"/>
+    </row>
+    <row r="433" ht="8.25" customHeight="0">
+      <c s="17" t="inlineStr" r="B433">
+        <is>
+          <r>
+            <rPr>
+              <b/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">PU#   </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">10244952</t>
+          </r>
+        </is>
+      </c>
+      <c s="15" t="str" r="E433"/>
+      <c s="14" t="str" r="F433"/>
+      <c s="15" t="str" r="K433"/>
+      <c s="14" t="str" r="M433"/>
+      <c s="15" t="str" r="N433"/>
+    </row>
+    <row r="434" ht="13.7" customHeight="0">
+      <c s="18" t="str" r="B434"/>
+      <c s="19" t="str" r="C434"/>
+      <c s="19" t="str" r="D434"/>
+      <c s="20" t="str" r="E434"/>
+      <c s="18" t="str" r="F434"/>
+      <c s="19" t="str" r="G434"/>
+      <c s="19" t="str" r="H434"/>
+      <c s="19" t="str" r="I434"/>
+      <c s="19" t="str" r="J434"/>
+      <c s="20" t="str" r="K434"/>
+      <c s="18" t="str" r="M434"/>
+      <c s="20" t="str" r="N434"/>
+    </row>
+    <row r="435" ht="13.7" customHeight="0">
+      <c s="10" t="inlineStr" r="B435">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">33429185</t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> / </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">08/23/2023</t>
+          </r>
+        </is>
+      </c>
+      <c s="11" t="str" r="C435"/>
+      <c s="11" t="str" r="D435"/>
+      <c s="12" t="str" r="E435"/>
+      <c s="13" t="inlineStr" r="F435">
+        <is>
+          <t xml:space="preserve">AUTOMATION RV (F5505) </t>
+        </is>
+      </c>
+      <c s="11" t="str" r="G435"/>
+      <c s="11" t="str" r="H435"/>
+      <c s="11" t="str" r="I435"/>
+      <c s="11" t="str" r="J435"/>
+      <c s="12" t="str" r="K435"/>
+      <c s="13" t="inlineStr" r="M435">
+        <is>
+          <t xml:space="preserve">FedEx Ship Center</t>
+        </is>
+      </c>
+      <c s="12" t="str" r="N435"/>
+    </row>
+    <row r="436" ht="1.8" customHeight="0">
+      <c s="14" t="str" r="B436"/>
+      <c s="15" t="str" r="E436"/>
+      <c s="16" t="inlineStr" r="F436">
+        <is>
+          <t xml:space="preserve">304 W BAY AREA BLVD.</t>
+        </is>
+      </c>
+      <c s="15" t="str" r="K436"/>
+      <c s="16" t="inlineStr" r="M436">
+        <is>
+          <t xml:space="preserve">12606 Fuqua St</t>
+        </is>
+      </c>
+      <c s="15" t="str" r="N436"/>
+    </row>
+    <row r="437" ht="11.85" customHeight="0">
+      <c s="16" t="inlineStr" r="B437">
+        <is>
+          <t xml:space="preserve">PU</t>
+        </is>
+      </c>
+      <c s="15" t="str" r="E437"/>
+      <c s="14" t="str" r="F437"/>
+      <c s="15" t="str" r="K437"/>
+      <c s="14" t="str" r="M437"/>
+      <c s="15" t="str" r="N437"/>
+    </row>
+    <row r="438" ht="3.6" customHeight="0">
+      <c s="14" t="str" r="B438"/>
+      <c s="15" t="str" r="E438"/>
+      <c s="16" t="inlineStr" r="F438">
+        <is>
+          <t xml:space="preserve">FONDREN, TX 77598</t>
+        </is>
+      </c>
+      <c s="15" t="str" r="K438"/>
+      <c s="16" t="inlineStr" r="M438">
+        <is>
+          <t xml:space="preserve">HOUSTON, TX 77034</t>
+        </is>
+      </c>
+      <c s="15" t="str" r="N438"/>
+    </row>
+    <row r="439" ht="10.1" customHeight="0">
+      <c s="17" t="inlineStr" r="B439">
+        <is>
+          <r>
+            <rPr>
+              <b/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">PCS : </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">1</t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">     </t>
+          </r>
+          <r>
+            <rPr>
+              <b/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">WT : </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">20.00</t>
+          </r>
+        </is>
+      </c>
+      <c s="15" t="str" r="E439"/>
+      <c s="14" t="str" r="F439"/>
+      <c s="15" t="str" r="K439"/>
+      <c s="14" t="str" r="M439"/>
+      <c s="15" t="str" r="N439"/>
+    </row>
+    <row r="440" ht="5.4" customHeight="0">
+      <c s="14" t="str" r="B440"/>
+      <c s="15" t="str" r="E440"/>
+      <c s="17" t="inlineStr" r="F440">
+        <is>
+          <r>
+            <rPr>
+              <b/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">PU TM : </t>
+          </r>
+        </is>
+      </c>
+      <c s="15" t="str" r="K440"/>
+      <c s="17" t="inlineStr" r="M440">
+        <is>
+          <r>
+            <rPr>
+              <b/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">DEL TM : </t>
+          </r>
+        </is>
+      </c>
+      <c s="15" t="str" r="N440"/>
+    </row>
+    <row r="441" ht="8.25" customHeight="0">
+      <c s="17" t="inlineStr" r="B441">
+        <is>
+          <r>
+            <rPr>
+              <b/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">PU#   </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">10247186</t>
+          </r>
+        </is>
+      </c>
+      <c s="15" t="str" r="E441"/>
+      <c s="14" t="str" r="F441"/>
+      <c s="15" t="str" r="K441"/>
+      <c s="14" t="str" r="M441"/>
+      <c s="15" t="str" r="N441"/>
+    </row>
+    <row r="442" ht="13.7" customHeight="0">
+      <c s="18" t="str" r="B442"/>
+      <c s="19" t="str" r="C442"/>
+      <c s="19" t="str" r="D442"/>
+      <c s="20" t="str" r="E442"/>
+      <c s="18" t="str" r="F442"/>
+      <c s="19" t="str" r="G442"/>
+      <c s="19" t="str" r="H442"/>
+      <c s="19" t="str" r="I442"/>
+      <c s="19" t="str" r="J442"/>
+      <c s="20" t="str" r="K442"/>
+      <c s="18" t="str" r="M442"/>
+      <c s="20" t="str" r="N442"/>
+    </row>
+    <row r="443" ht="13.7" customHeight="0">
+      <c s="10" t="inlineStr" r="B443">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">33429302</t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> / </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">08/23/2023</t>
+          </r>
+        </is>
+      </c>
+      <c s="11" t="str" r="C443"/>
+      <c s="11" t="str" r="D443"/>
+      <c s="12" t="str" r="E443"/>
+      <c s="13" t="inlineStr" r="F443">
+        <is>
+          <t xml:space="preserve">AUTOMATION RV (F5505) </t>
+        </is>
+      </c>
+      <c s="11" t="str" r="G443"/>
+      <c s="11" t="str" r="H443"/>
+      <c s="11" t="str" r="I443"/>
+      <c s="11" t="str" r="J443"/>
+      <c s="12" t="str" r="K443"/>
+      <c s="13" t="inlineStr" r="M443">
+        <is>
+          <t xml:space="preserve">FedEx Ship Center</t>
+        </is>
+      </c>
+      <c s="12" t="str" r="N443"/>
+    </row>
+    <row r="444" ht="1.8" customHeight="0">
+      <c s="14" t="str" r="B444"/>
+      <c s="15" t="str" r="E444"/>
+      <c s="16" t="inlineStr" r="F444">
+        <is>
+          <t xml:space="preserve">304 W BAY AREA BLVD.</t>
+        </is>
+      </c>
+      <c s="15" t="str" r="K444"/>
+      <c s="16" t="inlineStr" r="M444">
+        <is>
+          <t xml:space="preserve">12606 Fuqua St</t>
+        </is>
+      </c>
+      <c s="15" t="str" r="N444"/>
+    </row>
+    <row r="445" ht="11.85" customHeight="0">
+      <c s="16" t="inlineStr" r="B445">
+        <is>
+          <t xml:space="preserve">PU</t>
+        </is>
+      </c>
+      <c s="15" t="str" r="E445"/>
+      <c s="14" t="str" r="F445"/>
+      <c s="15" t="str" r="K445"/>
+      <c s="14" t="str" r="M445"/>
+      <c s="15" t="str" r="N445"/>
+    </row>
+    <row r="446" ht="3.6" customHeight="0">
+      <c s="14" t="str" r="B446"/>
+      <c s="15" t="str" r="E446"/>
+      <c s="16" t="inlineStr" r="F446">
+        <is>
+          <t xml:space="preserve">FONDREN, TX 77598</t>
+        </is>
+      </c>
+      <c s="15" t="str" r="K446"/>
+      <c s="16" t="inlineStr" r="M446">
+        <is>
+          <t xml:space="preserve">HOUSTON, TX 77034</t>
+        </is>
+      </c>
+      <c s="15" t="str" r="N446"/>
+    </row>
+    <row r="447" ht="10.1" customHeight="0">
+      <c s="17" t="inlineStr" r="B447">
+        <is>
+          <r>
+            <rPr>
+              <b/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">PCS : </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">1</t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">     </t>
+          </r>
+          <r>
+            <rPr>
+              <b/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">WT : </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">20.00</t>
+          </r>
+        </is>
+      </c>
+      <c s="15" t="str" r="E447"/>
+      <c s="14" t="str" r="F447"/>
+      <c s="15" t="str" r="K447"/>
+      <c s="14" t="str" r="M447"/>
+      <c s="15" t="str" r="N447"/>
+    </row>
+    <row r="448" ht="5.4" customHeight="0">
+      <c s="14" t="str" r="B448"/>
+      <c s="15" t="str" r="E448"/>
+      <c s="17" t="inlineStr" r="F448">
+        <is>
+          <r>
+            <rPr>
+              <b/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">PU TM : </t>
+          </r>
+        </is>
+      </c>
+      <c s="15" t="str" r="K448"/>
+      <c s="17" t="inlineStr" r="M448">
+        <is>
+          <r>
+            <rPr>
+              <b/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">DEL TM : </t>
+          </r>
+        </is>
+      </c>
+      <c s="15" t="str" r="N448"/>
+    </row>
+    <row r="449" ht="8.25" customHeight="0">
+      <c s="17" t="inlineStr" r="B449">
+        <is>
+          <r>
+            <rPr>
+              <b/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">PU#   </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">10247303</t>
+          </r>
+        </is>
+      </c>
+      <c s="15" t="str" r="E449"/>
+      <c s="14" t="str" r="F449"/>
+      <c s="15" t="str" r="K449"/>
+      <c s="14" t="str" r="M449"/>
+      <c s="15" t="str" r="N449"/>
+    </row>
+    <row r="450" ht="13.7" customHeight="0">
+      <c s="18" t="str" r="B450"/>
+      <c s="19" t="str" r="C450"/>
+      <c s="19" t="str" r="D450"/>
+      <c s="20" t="str" r="E450"/>
+      <c s="18" t="str" r="F450"/>
+      <c s="19" t="str" r="G450"/>
+      <c s="19" t="str" r="H450"/>
+      <c s="19" t="str" r="I450"/>
+      <c s="19" t="str" r="J450"/>
+      <c s="20" t="str" r="K450"/>
+      <c s="18" t="str" r="M450"/>
+      <c s="20" t="str" r="N450"/>
+    </row>
+    <row r="451" ht="13.7" customHeight="0">
+      <c s="10" t="inlineStr" r="B451">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">33429647</t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> / </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">08/23/2023</t>
+          </r>
+        </is>
+      </c>
+      <c s="11" t="str" r="C451"/>
+      <c s="11" t="str" r="D451"/>
+      <c s="12" t="str" r="E451"/>
+      <c s="13" t="inlineStr" r="F451">
+        <is>
+          <t xml:space="preserve">AUTOMATION RV (F5505) </t>
+        </is>
+      </c>
+      <c s="11" t="str" r="G451"/>
+      <c s="11" t="str" r="H451"/>
+      <c s="11" t="str" r="I451"/>
+      <c s="11" t="str" r="J451"/>
+      <c s="12" t="str" r="K451"/>
+      <c s="13" t="inlineStr" r="M451">
+        <is>
+          <t xml:space="preserve">FedEx Ship Center</t>
+        </is>
+      </c>
+      <c s="12" t="str" r="N451"/>
+    </row>
+    <row r="452" ht="1.8" customHeight="0">
+      <c s="14" t="str" r="B452"/>
+      <c s="15" t="str" r="E452"/>
+      <c s="16" t="inlineStr" r="F452">
+        <is>
+          <t xml:space="preserve">304 W BAY AREA BLVD.</t>
+        </is>
+      </c>
+      <c s="15" t="str" r="K452"/>
+      <c s="16" t="inlineStr" r="M452">
+        <is>
+          <t xml:space="preserve">12606 Fuqua St</t>
+        </is>
+      </c>
+      <c s="15" t="str" r="N452"/>
+    </row>
+    <row r="453" ht="11.85" customHeight="0">
+      <c s="16" t="inlineStr" r="B453">
+        <is>
+          <t xml:space="preserve">PU</t>
+        </is>
+      </c>
+      <c s="15" t="str" r="E453"/>
+      <c s="14" t="str" r="F453"/>
+      <c s="15" t="str" r="K453"/>
+      <c s="14" t="str" r="M453"/>
+      <c s="15" t="str" r="N453"/>
+    </row>
+    <row r="454" ht="3.6" customHeight="0">
+      <c s="14" t="str" r="B454"/>
+      <c s="15" t="str" r="E454"/>
+      <c s="16" t="inlineStr" r="F454">
+        <is>
+          <t xml:space="preserve">FONDREN, TX 77598</t>
+        </is>
+      </c>
+      <c s="15" t="str" r="K454"/>
+      <c s="16" t="inlineStr" r="M454">
+        <is>
+          <t xml:space="preserve">HOUSTON, TX 77034</t>
+        </is>
+      </c>
+      <c s="15" t="str" r="N454"/>
+    </row>
+    <row r="455" ht="10.1" customHeight="0">
+      <c s="17" t="inlineStr" r="B455">
+        <is>
+          <r>
+            <rPr>
+              <b/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">PCS : </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">1</t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">     </t>
+          </r>
+          <r>
+            <rPr>
+              <b/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">WT : </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">20.00</t>
+          </r>
+        </is>
+      </c>
+      <c s="15" t="str" r="E455"/>
+      <c s="14" t="str" r="F455"/>
+      <c s="15" t="str" r="K455"/>
+      <c s="14" t="str" r="M455"/>
+      <c s="15" t="str" r="N455"/>
+    </row>
+    <row r="456" ht="5.4" customHeight="0">
+      <c s="14" t="str" r="B456"/>
+      <c s="15" t="str" r="E456"/>
+      <c s="17" t="inlineStr" r="F456">
+        <is>
+          <r>
+            <rPr>
+              <b/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">PU TM : </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">8/23/2023 07:55</t>
+          </r>
+        </is>
+      </c>
+      <c s="15" t="str" r="K456"/>
+      <c s="17" t="inlineStr" r="M456">
+        <is>
+          <r>
+            <rPr>
+              <b/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">DEL TM : </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">8/23/2023 07:58</t>
+          </r>
+        </is>
+      </c>
+      <c s="15" t="str" r="N456"/>
+    </row>
+    <row r="457" ht="8.25" customHeight="0">
+      <c s="17" t="inlineStr" r="B457">
+        <is>
+          <r>
+            <rPr>
+              <b/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">PU#   </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">10247648</t>
+          </r>
+        </is>
+      </c>
+      <c s="15" t="str" r="E457"/>
+      <c s="14" t="str" r="F457"/>
+      <c s="15" t="str" r="K457"/>
+      <c s="14" t="str" r="M457"/>
+      <c s="15" t="str" r="N457"/>
+    </row>
+    <row r="458" ht="13.7" customHeight="0">
+      <c s="18" t="str" r="B458"/>
+      <c s="19" t="str" r="C458"/>
+      <c s="19" t="str" r="D458"/>
+      <c s="20" t="str" r="E458"/>
+      <c s="18" t="str" r="F458"/>
+      <c s="19" t="str" r="G458"/>
+      <c s="19" t="str" r="H458"/>
+      <c s="19" t="str" r="I458"/>
+      <c s="19" t="str" r="J458"/>
+      <c s="20" t="str" r="K458"/>
+      <c s="18" t="str" r="M458"/>
+      <c s="20" t="str" r="N458"/>
+    </row>
+    <row r="459" ht="13.7" customHeight="0">
+      <c s="10" t="inlineStr" r="B459">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">33429971</t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> / </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">08/23/2023</t>
+          </r>
+        </is>
+      </c>
+      <c s="11" t="str" r="C459"/>
+      <c s="11" t="str" r="D459"/>
+      <c s="12" t="str" r="E459"/>
+      <c s="13" t="inlineStr" r="F459">
+        <is>
+          <t xml:space="preserve">PARK RIDGE HOSPITAL</t>
+        </is>
+      </c>
+      <c s="11" t="str" r="G459"/>
+      <c s="11" t="str" r="H459"/>
+      <c s="11" t="str" r="I459"/>
+      <c s="11" t="str" r="J459"/>
+      <c s="12" t="str" r="K459"/>
+      <c s="13" t="inlineStr" r="M459">
+        <is>
+          <t xml:space="preserve">FedEx Ship Center</t>
+        </is>
+      </c>
+      <c s="12" t="str" r="N459"/>
+    </row>
+    <row r="460" ht="1.8" customHeight="0">
+      <c s="14" t="str" r="B460"/>
+      <c s="15" t="str" r="E460"/>
+      <c s="16" t="inlineStr" r="F460">
+        <is>
+          <t xml:space="preserve">100 HOSPITAL DR</t>
+        </is>
+      </c>
+      <c s="15" t="str" r="K460"/>
+      <c s="16" t="inlineStr" r="M460">
+        <is>
+          <t xml:space="preserve">620 Ferncliff Park Dr</t>
+        </is>
+      </c>
+      <c s="15" t="str" r="N460"/>
+    </row>
+    <row r="461" ht="11.85" customHeight="0">
+      <c s="16" t="inlineStr" r="B461">
+        <is>
+          <t xml:space="preserve">PU</t>
+        </is>
+      </c>
+      <c s="15" t="str" r="E461"/>
+      <c s="14" t="str" r="F461"/>
+      <c s="15" t="str" r="K461"/>
+      <c s="14" t="str" r="M461"/>
+      <c s="15" t="str" r="N461"/>
+    </row>
+    <row r="462" ht="3.6" customHeight="0">
+      <c s="14" t="str" r="B462"/>
+      <c s="15" t="str" r="E462"/>
+      <c s="16" t="inlineStr" r="F462">
+        <is>
+          <t xml:space="preserve">HENDERSONVILLE, NC 28792</t>
+        </is>
+      </c>
+      <c s="15" t="str" r="K462"/>
+      <c s="16" t="inlineStr" r="M462">
+        <is>
+          <t xml:space="preserve">FLETCHER, NC 28732</t>
+        </is>
+      </c>
+      <c s="15" t="str" r="N462"/>
+    </row>
+    <row r="463" ht="10.1" customHeight="0">
+      <c s="17" t="inlineStr" r="B463">
+        <is>
+          <r>
+            <rPr>
+              <b/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">PCS : </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">1</t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">     </t>
+          </r>
+          <r>
+            <rPr>
+              <b/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">WT : </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">3.00</t>
+          </r>
+        </is>
+      </c>
+      <c s="15" t="str" r="E463"/>
+      <c s="14" t="str" r="F463"/>
+      <c s="15" t="str" r="K463"/>
+      <c s="14" t="str" r="M463"/>
+      <c s="15" t="str" r="N463"/>
+    </row>
+    <row r="464" ht="5.4" customHeight="0">
+      <c s="14" t="str" r="B464"/>
+      <c s="15" t="str" r="E464"/>
+      <c s="17" t="inlineStr" r="F464">
+        <is>
+          <r>
+            <rPr>
+              <b/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">PU TM : </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">8/23/2023 11:20</t>
+          </r>
+        </is>
+      </c>
+      <c s="15" t="str" r="K464"/>
+      <c s="17" t="inlineStr" r="M464">
+        <is>
+          <r>
+            <rPr>
+              <b/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">DEL TM : </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">8/23/2023 11:23</t>
+          </r>
+        </is>
+      </c>
+      <c s="15" t="str" r="N464"/>
+    </row>
+    <row r="465" ht="8.25" customHeight="0">
+      <c s="17" t="inlineStr" r="B465">
+        <is>
+          <r>
+            <rPr>
+              <b/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">PU#   </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">10247966</t>
+          </r>
+        </is>
+      </c>
+      <c s="15" t="str" r="E465"/>
+      <c s="14" t="str" r="F465"/>
+      <c s="15" t="str" r="K465"/>
+      <c s="14" t="str" r="M465"/>
+      <c s="15" t="str" r="N465"/>
+    </row>
+    <row r="466" ht="13.7" customHeight="0">
+      <c s="18" t="str" r="B466"/>
+      <c s="19" t="str" r="C466"/>
+      <c s="19" t="str" r="D466"/>
+      <c s="20" t="str" r="E466"/>
+      <c s="18" t="str" r="F466"/>
+      <c s="19" t="str" r="G466"/>
+      <c s="19" t="str" r="H466"/>
+      <c s="19" t="str" r="I466"/>
+      <c s="19" t="str" r="J466"/>
+      <c s="20" t="str" r="K466"/>
+      <c s="18" t="str" r="M466"/>
+      <c s="20" t="str" r="N466"/>
+    </row>
+    <row r="467" ht="18" customHeight="1">
+      <c s="7" t="inlineStr" r="B467">
         <is>
           <r>
             <rPr>
@@ -15094,7 +16589,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">52</t>
+            <t xml:space="preserve">57</t>
           </r>
           <r>
             <rPr>
@@ -15130,7 +16625,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">52</t>
+            <t xml:space="preserve">57</t>
           </r>
           <r>
             <rPr>
@@ -15166,7 +16661,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">620</t>
+            <t xml:space="preserve">1312</t>
           </r>
           <r>
             <rPr>
@@ -15182,21 +16677,21 @@
           </r>
         </is>
       </c>
-      <c s="8" t="str" r="C427"/>
-      <c s="8" t="str" r="D427"/>
-      <c s="8" t="str" r="E427"/>
-      <c s="8" t="str" r="F427"/>
-      <c s="8" t="str" r="G427"/>
-      <c s="8" t="str" r="H427"/>
-      <c s="8" t="str" r="I427"/>
-      <c s="8" t="str" r="J427"/>
-      <c s="8" t="str" r="K427"/>
-      <c s="8" t="str" r="L427"/>
-      <c s="8" t="str" r="M427"/>
-      <c s="9" t="str" r="N427"/>
-    </row>
-    <row r="428" ht="19.45" customHeight="1">
-      <c s="21" t="inlineStr" r="B428">
+      <c s="8" t="str" r="C467"/>
+      <c s="8" t="str" r="D467"/>
+      <c s="8" t="str" r="E467"/>
+      <c s="8" t="str" r="F467"/>
+      <c s="8" t="str" r="G467"/>
+      <c s="8" t="str" r="H467"/>
+      <c s="8" t="str" r="I467"/>
+      <c s="8" t="str" r="J467"/>
+      <c s="8" t="str" r="K467"/>
+      <c s="8" t="str" r="L467"/>
+      <c s="8" t="str" r="M467"/>
+      <c s="9" t="str" r="N467"/>
+    </row>
+    <row r="468" ht="19.45" customHeight="1">
+      <c s="21" t="inlineStr" r="B468">
         <is>
           <r>
             <rPr>
@@ -15256,7 +16751,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">52</t>
+            <t xml:space="preserve">57</t>
           </r>
           <r>
             <rPr>
@@ -15292,7 +16787,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">52</t>
+            <t xml:space="preserve">57</t>
           </r>
           <r>
             <rPr>
@@ -15328,7 +16823,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">620</t>
+            <t xml:space="preserve">1312</t>
           </r>
           <r>
             <rPr>
@@ -15345,8 +16840,8 @@
         </is>
       </c>
     </row>
-    <row r="429" ht="0.05" customHeight="1"/>
-    <row r="430" ht="31.7" customHeight="1"/>
+    <row r="469" ht="0.05" customHeight="1"/>
+    <row r="470" ht="31.7" customHeight="1"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:D3"/>
@@ -15980,13 +17475,73 @@
     <mergeCell ref="F424:K425"/>
     <mergeCell ref="M424:N425"/>
     <mergeCell ref="B425:E426"/>
-    <mergeCell ref="B427:N427"/>
-    <mergeCell ref="B428:N428"/>
+    <mergeCell ref="B427:E428"/>
+    <mergeCell ref="F427:K427"/>
+    <mergeCell ref="M427:N427"/>
+    <mergeCell ref="F428:K429"/>
+    <mergeCell ref="M428:N429"/>
+    <mergeCell ref="B429:E430"/>
+    <mergeCell ref="F430:K431"/>
+    <mergeCell ref="M430:N431"/>
+    <mergeCell ref="B431:E432"/>
+    <mergeCell ref="F432:K433"/>
+    <mergeCell ref="M432:N433"/>
+    <mergeCell ref="B433:E434"/>
+    <mergeCell ref="B435:E436"/>
+    <mergeCell ref="F435:K435"/>
+    <mergeCell ref="M435:N435"/>
+    <mergeCell ref="F436:K437"/>
+    <mergeCell ref="M436:N437"/>
+    <mergeCell ref="B437:E438"/>
+    <mergeCell ref="F438:K439"/>
+    <mergeCell ref="M438:N439"/>
+    <mergeCell ref="B439:E440"/>
+    <mergeCell ref="F440:K441"/>
+    <mergeCell ref="M440:N441"/>
+    <mergeCell ref="B441:E442"/>
+    <mergeCell ref="B443:E444"/>
+    <mergeCell ref="F443:K443"/>
+    <mergeCell ref="M443:N443"/>
+    <mergeCell ref="F444:K445"/>
+    <mergeCell ref="M444:N445"/>
+    <mergeCell ref="B445:E446"/>
+    <mergeCell ref="F446:K447"/>
+    <mergeCell ref="M446:N447"/>
+    <mergeCell ref="B447:E448"/>
+    <mergeCell ref="F448:K449"/>
+    <mergeCell ref="M448:N449"/>
+    <mergeCell ref="B449:E450"/>
+    <mergeCell ref="B451:E452"/>
+    <mergeCell ref="F451:K451"/>
+    <mergeCell ref="M451:N451"/>
+    <mergeCell ref="F452:K453"/>
+    <mergeCell ref="M452:N453"/>
+    <mergeCell ref="B453:E454"/>
+    <mergeCell ref="F454:K455"/>
+    <mergeCell ref="M454:N455"/>
+    <mergeCell ref="B455:E456"/>
+    <mergeCell ref="F456:K457"/>
+    <mergeCell ref="M456:N457"/>
+    <mergeCell ref="B457:E458"/>
+    <mergeCell ref="B459:E460"/>
+    <mergeCell ref="F459:K459"/>
+    <mergeCell ref="M459:N459"/>
+    <mergeCell ref="F460:K461"/>
+    <mergeCell ref="M460:N461"/>
+    <mergeCell ref="B461:E462"/>
+    <mergeCell ref="F462:K463"/>
+    <mergeCell ref="M462:N463"/>
+    <mergeCell ref="B463:E464"/>
+    <mergeCell ref="F464:K465"/>
+    <mergeCell ref="M464:N465"/>
+    <mergeCell ref="B465:E466"/>
+    <mergeCell ref="B467:N467"/>
+    <mergeCell ref="B468:N468"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.902079921259843" header="0.25" footer="0.25"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;9 5/30/2023 10:10 PM &amp;C&amp;"Arial,Regular"&amp;9 *Data provided should be considered CONFIDENTIAL and PROPRIETARY* 
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;9 8/24/2023 11:00 PM &amp;C&amp;"Arial,Regular"&amp;9 *Data provided should be considered CONFIDENTIAL and PROPRIETARY* 
 &amp;"-,Regular"©2011-2023 MNX Global Logistics. All rights reserved. &amp;R&amp;"Arial,Regular"&amp;9 Print User : selenium.automation </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>
